--- a/lendingrisk/features.xlsx
+++ b/lendingrisk/features.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1BA487-7ED4-4039-A167-41E05767BB82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5AF99-DCC4-4730-A57E-F0627C21D836}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="475">
   <si>
     <t>column</t>
   </si>
@@ -1490,6 +1490,11 @@
   </si>
   <si>
     <t>均编码+重要特征分组求max mean等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上，但是删除
+importance=0的特征</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2741,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F2285A-0580-4E4D-8803-3C6614005D3B}">
   <dimension ref="A1:S351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J202" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7945,8 +7950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C19AEF-B212-42A2-B6A6-9D7BF18D40F8}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E10:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8152,19 +8157,35 @@
         <v>0.74002585508304697</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="22.8">
+    <row r="8" spans="1:13" ht="45.6">
       <c r="A8" s="19"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>159</v>
+      </c>
       <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="I8" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="L8" s="29">
+        <v>0.74001145813677704</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="22.8">
       <c r="A9" s="19"/>

--- a/lendingrisk/features.xlsx
+++ b/lendingrisk/features.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5AF99-DCC4-4730-A57E-F0627C21D836}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB1FF55-B5DB-4902-AB74-9113CA0AEC35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="501">
   <si>
     <t>column</t>
   </si>
@@ -207,9 +207,6 @@
     <t>贷款利率</t>
   </si>
   <si>
-    <t>分期付款金额</t>
-  </si>
-  <si>
     <t>就业职称</t>
   </si>
   <si>
@@ -220,12 +217,6 @@
   </si>
   <si>
     <t>借款人过去2年信用档案中逾期30天以上的违约事件数</t>
-  </si>
-  <si>
-    <t>贷款发放时的fico所属的下限范围</t>
-  </si>
-  <si>
-    <t>公开记录清除的数量</t>
   </si>
   <si>
     <t>最早报告的信用额度开立的日期——月</t>
@@ -254,9 +245,6 @@
   </si>
   <si>
     <t>信贷周转余额合计</t>
-  </si>
-  <si>
-    <t>贬损公共记录的数量</t>
   </si>
   <si>
     <t>借款人信用档案中未结信用额度的数量</t>
@@ -569,11 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mean_enc,
-重要特征分组 求max mean 等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>employmentTitle_pred_1</t>
   </si>
   <si>
@@ -1495,6 +1478,133 @@
   <si>
     <t>同上，但是删除
 importance=0的特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employmentTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interestRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanAmnt*interestRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款金额*贷款利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanAmnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款期限/贷款年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employmentLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annualIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就业年限*年收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款发放时的fico所属的下限范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubRecBankruptcies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubRec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开记录清除的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贬损公共记录的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开记录清除的数量/贬损公共记录的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubRecBankruptcies / pubRec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employmentLength * annualIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanAmnt / term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanAmnt * interestRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earliesCreditLine_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueDate_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueDate_year - earliesCreditLine_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款发放年份 - 首次建立信用年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分期付款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>installment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">installment / loanAmnt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分期付款金额 / 贷款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean_enc,
+重要特征分组 求max,mean ,min,median,std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean_enc,
+重要特征分组 求max,mean ,min,median,std
+重要特征求count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalAcc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1567,7 +1677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1662,11 +1772,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1715,16 +1836,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1745,12 +1872,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2031,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2044,9 +2169,11 @@
     <col min="3" max="3" width="6.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="30">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2055,13 +2182,16 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="13.8" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2069,7 +2199,7 @@
         <v>0.29897984999999999</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>55</v>
@@ -2077,8 +2207,14 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="I2" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="J2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.8" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2086,7 +2222,7 @@
         <v>0.27326</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>56</v>
@@ -2094,8 +2230,14 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="I3" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="J3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.8" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2103,7 +2245,7 @@
         <v>5.6209612999999999E-2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>54</v>
@@ -2111,8 +2253,14 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="I4" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="J4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.8" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2120,7 +2268,7 @@
         <v>3.1053087E-2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>58</v>
@@ -2128,25 +2276,37 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="I5" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="J5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.8" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>491</v>
       </c>
       <c r="B6" s="5">
         <v>2.4456822999999999E-2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="I6" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="J6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.8" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -2154,16 +2314,22 @@
         <v>1.6904868E-2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="e">
         <v>#N/A</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>162</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>496</v>
+      </c>
+      <c r="J7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.8" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -2171,7 +2337,7 @@
         <v>1.4866332499999999E-2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="e">
         <v>#N/A</v>
@@ -2179,16 +2345,19 @@
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="I8" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13.8" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>477</v>
       </c>
       <c r="B9" s="5">
         <v>1.072174E-2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>57</v>
@@ -2196,8 +2365,11 @@
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="I9" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.8" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2205,16 +2377,19 @@
         <v>1.0674232000000001E-2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>480</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="I10" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.8" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2222,7 +2397,7 @@
         <v>1.0619366E-2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="e">
         <v>#N/A</v>
@@ -2230,16 +2405,19 @@
       <c r="F11" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="I11" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.8" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>475</v>
       </c>
       <c r="B12" s="5">
         <v>1.0230319999999999E-2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>59</v>
@@ -2247,8 +2425,11 @@
       <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="I12" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13.8" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -2256,16 +2437,19 @@
         <v>1.0012815E-2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="I13" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -2273,14 +2457,17 @@
         <v>9.6443459999999998E-3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="e">
         <v>#N/A</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="I14" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.8" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -2288,29 +2475,35 @@
         <v>9.3753389999999999E-3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="I15" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.8" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>478</v>
       </c>
       <c r="B16" s="5">
         <v>9.3079689999999993E-3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="I16" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.8" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2318,14 +2511,17 @@
         <v>8.8586389999999997E-3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="I17" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.8" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -2333,28 +2529,34 @@
         <v>8.7874140000000003E-3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="I18" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.8" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>495</v>
       </c>
       <c r="B19" s="5">
         <v>8.4222589999999996E-3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>494</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.8" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -2362,13 +2564,16 @@
         <v>8.4214619999999994E-3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="I20" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.8" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -2376,13 +2581,16 @@
         <v>8.2583320000000002E-3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="I21" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13.8" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -2390,27 +2598,33 @@
         <v>8.1117129999999996E-3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="I22" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="13.8" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>481</v>
       </c>
       <c r="B23" s="5">
         <v>7.5843552999999998E-3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>483</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13.8" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2418,55 +2632,65 @@
         <v>7.3061289999999997E-3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.8" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>471</v>
       </c>
       <c r="B25" s="5">
         <v>7.1876774999999997E-3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="13.8" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>472</v>
       </c>
       <c r="B26" s="5">
         <v>7.1352350000000002E-3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="I26" s="30" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="13.8" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>482</v>
       </c>
       <c r="B27" s="5">
         <v>7.0049142999999998E-3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>484</v>
+      </c>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.8" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -2474,13 +2698,13 @@
         <v>6.9421654999999999E-3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:9" ht="13.8" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -2488,27 +2712,27 @@
         <v>6.8434304999999999E-3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:9" ht="13.8" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>490</v>
       </c>
       <c r="B30" s="5">
         <v>6.8339678000000001E-3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13.8" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -2516,27 +2740,27 @@
         <v>6.8042064000000003E-3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:9" ht="13.8" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="B32" s="5">
         <v>6.7740175999999996E-3</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.8" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -2544,13 +2768,13 @@
         <v>6.5297439999999997E-3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="13.8" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -2558,13 +2782,13 @@
         <v>6.4210780000000002E-3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="13.8" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
@@ -2572,13 +2796,13 @@
         <v>6.3323909999999997E-3</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13.8" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -2586,13 +2810,13 @@
         <v>6.1546904000000001E-3</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="13.8" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
@@ -2600,13 +2824,13 @@
         <v>5.9914662999999996E-3</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" ht="13.8" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -2614,13 +2838,13 @@
         <v>5.9797490000000003E-3</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="13.8" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -2628,13 +2852,13 @@
         <v>5.9008810000000002E-3</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="13.8" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -2642,13 +2866,13 @@
         <v>5.8261477000000001E-3</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="13.8" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2656,13 +2880,13 @@
         <v>5.7852440000000002E-3</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="13.8" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
@@ -2670,13 +2894,13 @@
         <v>5.7771890000000003E-3</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" ht="13.8" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -2684,13 +2908,13 @@
         <v>5.6387577000000001E-3</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" ht="13.8" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -2698,13 +2922,13 @@
         <v>5.4411149999999998E-3</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.8" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -2712,13 +2936,13 @@
         <v>5.3362423000000003E-3</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.8" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -2726,10 +2950,10 @@
         <v>5.2927190000000004E-3</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2799,25 +3023,25 @@
     </row>
     <row r="2" spans="1:19">
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1">
         <v>0.32721388000000001</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1">
         <v>0.29389280000000001</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K2" s="1">
         <v>9.8673178168595499E-2</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O2" s="1">
         <v>9.8673178168595499E-2</v>
@@ -2830,41 +3054,41 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="19" t="s">
-        <v>84</v>
+      <c r="A3" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1">
         <v>0.15687483999999999</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>130</v>
+      <c r="E3" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1">
         <v>0.15758437</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K3" s="1">
         <v>8.6779473260664E-2</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>138</v>
+      <c r="M3" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O3" s="1">
         <v>8.6779473260664E-2</v>
       </c>
-      <c r="Q3" s="19" t="s">
-        <v>473</v>
+      <c r="Q3" s="20" t="s">
+        <v>468</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>8</v>
@@ -2874,34 +3098,34 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1">
         <v>0.10904612</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1">
         <v>0.13392037000000001</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K4" s="1">
         <v>8.3156358646470196E-2</v>
       </c>
-      <c r="M4" s="19"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O4" s="1">
         <v>8.3156358646470196E-2</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="20"/>
       <c r="R4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2910,34 +3134,34 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1.7676646000000001E-2</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1">
         <v>2.3752150999999999E-2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K5" s="1">
         <v>7.7924457655247206E-2</v>
       </c>
-      <c r="M5" s="19"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O5" s="1">
         <v>7.7924457655247206E-2</v>
       </c>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="20"/>
       <c r="R5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2946,14 +3170,14 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1">
         <v>1.5471423E-2</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2961,19 +3185,19 @@
         <v>2.2234146E-2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K6" s="1">
         <v>5.8626868320961603E-2</v>
       </c>
-      <c r="M6" s="19"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O6" s="1">
         <v>5.8626868320961603E-2</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="20"/>
       <c r="R6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2982,14 +3206,14 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1">
         <v>1.4887176E-2</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2997,71 +3221,71 @@
         <v>1.6615411E-2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K7" s="1">
         <v>4.6898540701750799E-2</v>
       </c>
-      <c r="M7" s="19"/>
+      <c r="M7" s="20"/>
       <c r="N7" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O7" s="1">
         <v>4.6898540701750799E-2</v>
       </c>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="20"/>
       <c r="R7" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="S7" s="1">
         <v>7.8926889999999996E-3</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1">
         <v>1.3480304E-2</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G8" s="1">
         <v>1.3901703E-2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K8" s="1">
         <v>4.5084838918122899E-2</v>
       </c>
-      <c r="M8" s="19"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O8" s="1">
         <v>4.5084838918122899E-2</v>
       </c>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="S8" s="1">
         <v>5.6738416E-3</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>1.3272760999999999E-2</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
@@ -3074,50 +3298,50 @@
       <c r="K9" s="1">
         <v>4.2568888878130998E-2</v>
       </c>
-      <c r="M9" s="19"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="1">
         <v>4.2568888878130998E-2</v>
       </c>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="20"/>
       <c r="R9" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S9" s="1">
         <v>5.3845469999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1">
         <v>1.2245466E-2</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1">
         <v>1.1290372999999999E-2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K10" s="1">
         <v>4.0034278152206802E-2</v>
       </c>
-      <c r="M10" s="19"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O10" s="1">
         <v>4.0034278152206802E-2</v>
       </c>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="20"/>
       <c r="R10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3139,19 +3363,19 @@
         <v>9.6024160000000008E-3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K11" s="1">
         <v>3.8139901054839102E-2</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O11" s="1">
         <v>3.8139901054839102E-2</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="S11" s="1">
         <v>4.7583864E-3</v>
@@ -3159,25 +3383,25 @@
     </row>
     <row r="12" spans="1:19">
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1">
         <v>8.1271590000000001E-3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G12" s="1">
         <v>8.8494560000000003E-3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K12" s="1">
         <v>3.3271230425157602E-2</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O12" s="1">
         <v>3.3271230425157602E-2</v>
@@ -3191,25 +3415,25 @@
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1">
         <v>7.5445464000000002E-3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G13" s="1">
         <v>7.1331266999999999E-3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K13" s="1">
         <v>2.93445225306222E-2</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O13" s="1">
         <v>2.93445225306222E-2</v>
@@ -3218,14 +3442,14 @@
         <v>0.74002585508304697</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S13" s="1">
         <v>4.2510954999999996E-3</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="20">
+      <c r="A14" s="23">
         <v>0.73441130689071998</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3244,7 +3468,7 @@
         <v>6.3592450000000003E-3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K14" s="1">
         <v>2.6720790086233299E-2</v>
@@ -3253,7 +3477,7 @@
         <v>0.72997009436355098</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O14" s="1">
         <v>2.6720790086233299E-2</v>
@@ -3267,7 +3491,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="20"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -3276,34 +3500,34 @@
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G15" s="1">
         <v>5.9450435999999999E-3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K15" s="1">
         <v>2.6108165300773999E-2</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O15" s="1">
         <v>2.6108165300773999E-2</v>
       </c>
       <c r="Q15" s="21"/>
       <c r="R15" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="S15" s="1">
         <v>4.0749167000000003E-3</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="20"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
@@ -3318,14 +3542,14 @@
         <v>5.8658533000000004E-3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K16" s="1">
         <v>2.24612101712004E-2</v>
       </c>
       <c r="M16" s="21"/>
       <c r="N16" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O16" s="1">
         <v>2.24612101712004E-2</v>
@@ -3339,7 +3563,7 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="20"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
@@ -3375,9 +3599,9 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="20"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1">
         <v>5.856338E-3</v>
@@ -3390,14 +3614,14 @@
         <v>5.5675799999999999E-3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K18" s="1">
         <v>1.8603863970834401E-2</v>
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O18" s="1">
         <v>1.8603863970834401E-2</v>
@@ -3411,9 +3635,9 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="20"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1">
         <v>5.7501499999999999E-3</v>
@@ -3426,28 +3650,28 @@
         <v>5.0793964999999996E-3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K19" s="1">
         <v>1.6565634807779901E-2</v>
       </c>
       <c r="M19" s="21"/>
       <c r="N19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O19" s="1">
         <v>1.6565634807779901E-2</v>
       </c>
       <c r="Q19" s="21"/>
       <c r="R19" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="S19" s="1">
         <v>3.6477922E-3</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="20"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
@@ -3456,20 +3680,20 @@
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G20" s="1">
         <v>4.8638335000000003E-3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K20" s="1">
         <v>1.5240059612740499E-2</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O20" s="1">
         <v>1.5240059612740499E-2</v>
@@ -3484,13 +3708,13 @@
     </row>
     <row r="21" spans="1:19">
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1">
         <v>5.5516493000000002E-3</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G21" s="1">
         <v>4.8131199999999997E-3</v>
@@ -3501,7 +3725,7 @@
       <c r="K21" s="1">
         <v>1.45933149076039E-2</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="22">
         <v>0.72777140027012199</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -3512,7 +3736,7 @@
       </c>
       <c r="Q21" s="21"/>
       <c r="R21" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="S21" s="1">
         <v>3.5015390000000001E-3</v>
@@ -3537,7 +3761,7 @@
       <c r="K22" s="1">
         <v>1.2850105397304299E-2</v>
       </c>
-      <c r="M22" s="18"/>
+      <c r="M22" s="22"/>
       <c r="N22" s="1" t="s">
         <v>43</v>
       </c>
@@ -3545,7 +3769,7 @@
         <v>1.2850105397304299E-2</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="S22" s="1">
         <v>3.4194142E-3</v>
@@ -3559,20 +3783,20 @@
         <v>5.4703180000000001E-3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G23" s="1">
         <v>4.7359960000000001E-3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K23" s="1">
         <v>1.14794267665998E-2</v>
       </c>
-      <c r="M23" s="18"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O23" s="1">
         <v>1.14794267665998E-2</v>
@@ -3603,7 +3827,7 @@
       <c r="K24" s="1">
         <v>1.0891291274876201E-2</v>
       </c>
-      <c r="M24" s="18"/>
+      <c r="M24" s="22"/>
       <c r="N24" s="1" t="s">
         <v>11</v>
       </c>
@@ -3619,7 +3843,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1">
         <v>5.3035226E-3</v>
@@ -3631,14 +3855,14 @@
         <v>4.5186356000000002E-3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K25" s="1">
         <v>1.02821238073545E-2</v>
       </c>
-      <c r="M25" s="18"/>
+      <c r="M25" s="22"/>
       <c r="N25" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O25" s="1">
         <v>1.02821238073545E-2</v>
@@ -3658,7 +3882,7 @@
         <v>5.2839527000000004E-3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G26" s="1">
         <v>4.4826249999999996E-3</v>
@@ -3676,7 +3900,7 @@
         <v>8.5567508272799304E-3</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S26" s="1">
         <v>2.8918283E-3</v>
@@ -3684,7 +3908,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1">
         <v>5.2642975999999996E-3</v>
@@ -3696,13 +3920,13 @@
         <v>4.3976776999999998E-3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K27" s="1">
         <v>7.5007017638108698E-3</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O27" s="1">
         <v>7.5007017638108698E-3</v>
@@ -3728,19 +3952,19 @@
         <v>4.2737223999999999E-3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K28" s="1">
         <v>7.4980215793558E-3</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O28" s="1">
         <v>7.4980215793558E-3</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="S28" s="1">
         <v>2.7599754000000002E-3</v>
@@ -3760,19 +3984,19 @@
         <v>4.1735710000000001E-3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K29" s="1">
         <v>6.4312917421365298E-3</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O29" s="1">
         <v>6.4312917421365298E-3</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="S29" s="1">
         <v>2.7249549999999998E-3</v>
@@ -3780,7 +4004,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1">
         <v>4.5222819999999999E-3</v>
@@ -3792,19 +4016,19 @@
         <v>4.1387699999999999E-3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K30" s="1">
         <v>6.1846142556482298E-3</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O30" s="1">
         <v>6.1846142556482298E-3</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="S30" s="1">
         <v>2.6871802E-3</v>
@@ -3818,25 +4042,25 @@
         <v>4.5010783E-3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G31" s="1">
         <v>4.1297080000000002E-3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K31" s="1">
         <v>5.9499531544695604E-3</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O31" s="1">
         <v>5.9499531544695604E-3</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="S31" s="1">
         <v>2.6812907E-3</v>
@@ -3850,19 +4074,19 @@
         <v>4.3663755000000002E-3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G32" s="1">
         <v>4.1154297000000001E-3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K32" s="1">
         <v>5.22523528657526E-3</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O32" s="1">
         <v>5.22523528657526E-3</v>
@@ -3900,7 +4124,7 @@
         <v>4.8290423475109102E-3</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="S33" s="1">
         <v>2.6287023999999998E-3</v>
@@ -3914,19 +4138,19 @@
         <v>4.2362349999999997E-3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G34" s="1">
         <v>3.9743670000000004E-3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K34" s="1">
         <v>4.7608508321124003E-3</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O34" s="1">
         <v>4.7608508321124003E-3</v>
@@ -3940,7 +4164,7 @@
     </row>
     <row r="35" spans="2:19">
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C35" s="1">
         <v>4.1510710000000001E-3</v>
@@ -3964,7 +4188,7 @@
         <v>4.4709469957222E-3</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="S35" s="1">
         <v>2.5603827000000002E-3</v>
@@ -3996,7 +4220,7 @@
         <v>4.2126609671110796E-3</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="S36" s="1">
         <v>2.5332836000000001E-3</v>
@@ -4016,19 +4240,19 @@
         <v>3.8613639999999999E-3</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K37" s="1">
         <v>3.82032053671176E-3</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O37" s="1">
         <v>3.82032053671176E-3</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="S37" s="1">
         <v>2.5248003999999999E-3</v>
@@ -4036,7 +4260,7 @@
     </row>
     <row r="38" spans="2:19">
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1">
         <v>4.0067490000000004E-3</v>
@@ -4048,19 +4272,19 @@
         <v>3.7895779E-3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K38" s="1">
         <v>3.6729762847547902E-3</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O38" s="1">
         <v>3.6729762847547902E-3</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="S38" s="1">
         <v>2.4775658E-3</v>
@@ -4112,19 +4336,19 @@
         <v>3.7598232999999999E-3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K40" s="1">
         <v>3.1547840779683699E-3</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O40" s="1">
         <v>3.1547840779683699E-3</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S40" s="1">
         <v>2.369548E-3</v>
@@ -4132,7 +4356,7 @@
     </row>
     <row r="41" spans="2:19">
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C41" s="1">
         <v>3.8874256000000001E-3</v>
@@ -4156,7 +4380,7 @@
         <v>3.0060660086664299E-3</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="S41" s="1">
         <v>2.3564375E-3</v>
@@ -4170,19 +4394,19 @@
         <v>3.8705050999999998E-3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G42" s="1">
         <v>3.7296629000000002E-3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K42" s="1">
         <v>2.8754968043992802E-3</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O42" s="1">
         <v>2.8754968043992802E-3</v>
@@ -4196,7 +4420,7 @@
     </row>
     <row r="43" spans="2:19">
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1">
         <v>3.8465091000000002E-3</v>
@@ -4220,7 +4444,7 @@
         <v>2.65798247154646E-3</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="S43" s="1">
         <v>2.2916809999999998E-3</v>
@@ -4234,7 +4458,7 @@
         <v>3.8338420000000001E-3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G44" s="1">
         <v>3.6635734E-3</v>
@@ -4252,7 +4476,7 @@
         <v>2.37332351412638E-3</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="S44" s="1">
         <v>2.2573129999999999E-3</v>
@@ -4260,31 +4484,31 @@
     </row>
     <row r="45" spans="2:19">
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1">
         <v>3.8018591999999999E-3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G45" s="1">
         <v>3.5772994000000001E-3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K45" s="1">
         <v>2.28007814404773E-3</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O45" s="1">
         <v>2.28007814404773E-3</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="S45" s="1">
         <v>2.2169225999999998E-3</v>
@@ -4298,7 +4522,7 @@
         <v>3.7744304000000002E-3</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G46" s="1">
         <v>3.5558172999999998E-3</v>
@@ -4330,19 +4554,19 @@
         <v>3.7213400000000001E-3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G47" s="1">
         <v>3.5270276000000001E-3</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K47" s="1">
         <v>1.37881417893978E-3</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O47" s="1">
         <v>1.37881417893978E-3</v>
@@ -4356,31 +4580,31 @@
     </row>
     <row r="48" spans="2:19">
       <c r="B48" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1">
         <v>3.7183176999999999E-3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G48" s="1">
         <v>3.4711575000000001E-3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K48" s="1">
         <v>1.3776055730806301E-3</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O48" s="1">
         <v>1.3776055730806301E-3</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S48" s="1">
         <v>2.1799519000000002E-3</v>
@@ -4394,19 +4618,19 @@
         <v>3.7094761999999998E-3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G49" s="1">
         <v>3.4278054000000001E-3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K49" s="1">
         <v>1.3479291678990899E-3</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O49" s="1">
         <v>1.3479291678990899E-3</v>
@@ -4420,7 +4644,7 @@
     </row>
     <row r="50" spans="2:19">
       <c r="B50" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C50" s="1">
         <v>3.7081473999999999E-3</v>
@@ -4432,19 +4656,19 @@
         <v>3.3949732E-3</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K50" s="1">
         <v>1.2963268928172301E-3</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O50" s="1">
         <v>1.2963268928172301E-3</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="S50" s="1">
         <v>2.174928E-3</v>
@@ -4452,31 +4676,31 @@
     </row>
     <row r="51" spans="2:19">
       <c r="B51" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C51" s="1">
         <v>3.6995806999999999E-3</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G51" s="1">
         <v>3.3820031999999998E-3</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K51" s="1">
         <v>1.17926565616092E-3</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O51" s="1">
         <v>1.17926565616092E-3</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S51" s="1">
         <v>2.1436726999999999E-3</v>
@@ -4484,7 +4708,7 @@
     </row>
     <row r="52" spans="2:19">
       <c r="B52" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C52" s="1">
         <v>3.6877096000000002E-3</v>
@@ -4508,7 +4732,7 @@
         <v>1.1258007210548601E-3</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="S52" s="1">
         <v>2.1216995000000001E-3</v>
@@ -4522,25 +4746,25 @@
         <v>3.6713178000000002E-3</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G53" s="1">
         <v>3.2725101000000002E-3</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K53" s="1">
         <v>1.1204825238271599E-3</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O53" s="1">
         <v>1.1204825238271599E-3</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="S53" s="1">
         <v>2.1103014999999999E-3</v>
@@ -4548,7 +4772,7 @@
     </row>
     <row r="54" spans="2:19">
       <c r="B54" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C54" s="1">
         <v>3.608024E-3</v>
@@ -4560,19 +4784,19 @@
         <v>3.2718773E-3</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K54" s="1">
         <v>1.09800068494767E-3</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O54" s="1">
         <v>1.09800068494767E-3</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="S54" s="1">
         <v>2.0977748E-3</v>
@@ -4580,13 +4804,13 @@
     </row>
     <row r="55" spans="2:19">
       <c r="B55" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C55" s="1">
         <v>3.5835189999999999E-3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G55" s="1">
         <v>3.2702317E-3</v>
@@ -4604,7 +4828,7 @@
         <v>1.0450280756490601E-3</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="S55" s="1">
         <v>2.0950084999999999E-3</v>
@@ -4624,13 +4848,13 @@
         <v>3.2647625000000002E-3</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K56" s="1">
         <v>9.0781902255436802E-4</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O56" s="1">
         <v>9.0781902255436802E-4</v>
@@ -4650,25 +4874,25 @@
         <v>3.548495E-3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G57" s="1">
         <v>3.2575861999999999E-3</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K57" s="1">
         <v>8.3405128569139495E-4</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O57" s="1">
         <v>8.3405128569139495E-4</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="S57" s="1">
         <v>2.0471816000000001E-3</v>
@@ -4676,31 +4900,31 @@
     </row>
     <row r="58" spans="2:19">
       <c r="B58" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C58" s="1">
         <v>3.5220170000000001E-3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G58" s="1">
         <v>3.2440056000000001E-3</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K58" s="1">
         <v>8.2085504013686898E-4</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O58" s="1">
         <v>8.2085504013686898E-4</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S58" s="1">
         <v>2.0303826000000001E-3</v>
@@ -4708,7 +4932,7 @@
     </row>
     <row r="59" spans="2:19">
       <c r="B59" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C59" s="1">
         <v>3.4167889999999999E-3</v>
@@ -4746,19 +4970,19 @@
         <v>3.3909169999999998E-3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G60" s="1">
         <v>3.2169297000000001E-3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K60" s="1">
         <v>7.0178432757930201E-4</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O60" s="1">
         <v>7.0178432757930201E-4</v>
@@ -4772,25 +4996,25 @@
     </row>
     <row r="61" spans="2:19">
       <c r="B61" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C61" s="1">
         <v>3.3780848999999998E-3</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G61" s="1">
         <v>3.2072481999999999E-3</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K61" s="1">
         <v>6.7473319645549397E-4</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O61" s="1">
         <v>6.7473319645549397E-4</v>
@@ -4810,7 +5034,7 @@
         <v>3.3778469999999998E-3</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G62" s="1">
         <v>3.1558312000000001E-3</v>
@@ -4836,13 +5060,13 @@
     </row>
     <row r="63" spans="2:19">
       <c r="B63" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C63" s="1">
         <v>3.3559359999999999E-3</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G63" s="1">
         <v>3.1111336000000001E-3</v>
@@ -4900,7 +5124,7 @@
     </row>
     <row r="65" spans="2:19">
       <c r="B65" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C65" s="1">
         <v>3.3346964E-3</v>
@@ -4912,19 +5136,19 @@
         <v>3.0737730000000001E-3</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K65" s="1">
         <v>2.0553549313969999E-4</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O65" s="1">
         <v>2.0553549313969999E-4</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="S65" s="1">
         <v>1.9162738000000001E-3</v>
@@ -4944,19 +5168,19 @@
         <v>3.0683575E-3</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K66" s="1">
         <v>2.03667309217977E-4</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O66" s="1">
         <v>2.03667309217977E-4</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="S66" s="1">
         <v>1.9119292E-3</v>
@@ -4988,7 +5212,7 @@
         <v>2.00049309014869E-4</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="S67" s="1">
         <v>1.8874329E-3</v>
@@ -4996,13 +5220,13 @@
     </row>
     <row r="68" spans="2:19">
       <c r="B68" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C68" s="1">
         <v>3.2833668000000001E-3</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G68" s="1">
         <v>3.0578668000000001E-3</v>
@@ -5028,13 +5252,13 @@
     </row>
     <row r="69" spans="2:19">
       <c r="B69" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C69" s="1">
         <v>3.2461318E-3</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G69" s="1">
         <v>3.0507787999999999E-3</v>
@@ -5060,7 +5284,7 @@
     </row>
     <row r="70" spans="2:19">
       <c r="B70" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C70" s="1">
         <v>3.2453525000000001E-3</v>
@@ -5084,7 +5308,7 @@
         <v>1.59896334707959E-4</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="S70" s="1">
         <v>1.8620976E-3</v>
@@ -5098,7 +5322,7 @@
         <v>3.215084E-3</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G71" s="1">
         <v>3.0235199E-3</v>
@@ -5124,13 +5348,13 @@
     </row>
     <row r="72" spans="2:19">
       <c r="B72" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C72" s="1">
         <v>3.2053092E-3</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G72" s="1">
         <v>2.9952910000000002E-3</v>
@@ -5148,7 +5372,7 @@
         <v>1.15604076875178E-4</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="S72" s="1">
         <v>1.8583670000000001E-3</v>
@@ -5156,13 +5380,13 @@
     </row>
     <row r="73" spans="2:19">
       <c r="B73" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C73" s="1">
         <v>3.1999594000000002E-3</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G73" s="1">
         <v>2.9915240000000002E-3</v>
@@ -5180,7 +5404,7 @@
         <v>1.0606935279148001E-4</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S73" s="1">
         <v>1.8579043E-3</v>
@@ -5188,7 +5412,7 @@
     </row>
     <row r="74" spans="2:19">
       <c r="B74" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C74" s="1">
         <v>3.1574746000000002E-3</v>
@@ -5228,7 +5452,7 @@
         <v>3.1461834E-3</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G75" s="1">
         <v>2.9801020000000001E-3</v>
@@ -5248,7 +5472,7 @@
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S75" s="1">
         <v>1.8412534000000001E-3</v>
@@ -5256,7 +5480,7 @@
     </row>
     <row r="76" spans="2:19">
       <c r="B76" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C76" s="1">
         <v>3.1315690999999999E-3</v>
@@ -5282,7 +5506,7 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="S76" s="1">
         <v>1.8409100000000001E-3</v>
@@ -5290,25 +5514,25 @@
     </row>
     <row r="77" spans="2:19">
       <c r="B77" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C77" s="1">
         <v>3.1030437E-3</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G77" s="1">
         <v>2.9612688999999998E-3</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K77" s="8">
         <v>6.8914014777124604E-5</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O77" s="8">
         <v>6.8914014777124604E-5</v>
@@ -5316,7 +5540,7 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="S77" s="1">
         <v>1.8316217000000001E-3</v>
@@ -5324,7 +5548,7 @@
     </row>
     <row r="78" spans="2:19">
       <c r="B78" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C78" s="1">
         <v>3.0797877999999999E-3</v>
@@ -5350,7 +5574,7 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S78" s="1">
         <v>1.8234903E-3</v>
@@ -5384,7 +5608,7 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="S79" s="1">
         <v>1.8166361E-3</v>
@@ -5398,7 +5622,7 @@
         <v>2.9962417E-3</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G80" s="1">
         <v>2.9342263E-3</v>
@@ -5418,7 +5642,7 @@
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="S80" s="1">
         <v>1.8121264E-3</v>
@@ -5426,13 +5650,13 @@
     </row>
     <row r="81" spans="2:19">
       <c r="B81" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C81" s="1">
         <v>2.9798518000000002E-3</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G81" s="1">
         <v>2.9160181999999999E-3</v>
@@ -5452,7 +5676,7 @@
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S81" s="1">
         <v>1.8034537E-3</v>
@@ -5460,13 +5684,13 @@
     </row>
     <row r="82" spans="2:19">
       <c r="B82" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C82" s="1">
         <v>2.9683499999999998E-3</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G82" s="1">
         <v>2.8953910000000002E-3</v>
@@ -5486,7 +5710,7 @@
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="S82" s="1">
         <v>1.8013216E-3</v>
@@ -5494,13 +5718,13 @@
     </row>
     <row r="83" spans="2:19">
       <c r="B83" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C83" s="1">
         <v>2.9680055999999999E-3</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G83" s="1">
         <v>2.8941697000000001E-3</v>
@@ -5534,7 +5758,7 @@
         <v>2.9101180000000002E-3</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G84" s="1">
         <v>2.8736575000000001E-3</v>
@@ -5554,7 +5778,7 @@
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S84" s="1">
         <v>1.7929294999999999E-3</v>
@@ -5568,7 +5792,7 @@
         <v>2.8027743000000002E-3</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G85" s="1">
         <v>2.8356676999999999E-3</v>
@@ -5588,7 +5812,7 @@
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S85" s="1">
         <v>1.7889448000000001E-3</v>
@@ -5602,7 +5826,7 @@
         <v>2.7052609E-3</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G86" s="1">
         <v>2.8131601999999999E-3</v>
@@ -5622,7 +5846,7 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S86" s="1">
         <v>1.7863461000000001E-3</v>
@@ -5636,7 +5860,7 @@
         <v>2.3094159999999999E-3</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G87" s="1">
         <v>2.7911072000000002E-3</v>
@@ -5656,7 +5880,7 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="S87" s="1">
         <v>1.7818008999999999E-3</v>
@@ -5690,7 +5914,7 @@
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S88" s="1">
         <v>1.7671780000000001E-3</v>
@@ -5698,13 +5922,13 @@
     </row>
     <row r="89" spans="2:19">
       <c r="B89" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G89" s="1">
         <v>2.7047120000000002E-3</v>
@@ -5724,7 +5948,7 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="S89" s="1">
         <v>1.7636396E-3</v>
@@ -5732,7 +5956,7 @@
     </row>
     <row r="90" spans="2:19">
       <c r="B90" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -5758,7 +5982,7 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="S90" s="1">
         <v>1.7604277E-3</v>
@@ -5766,7 +5990,7 @@
     </row>
     <row r="91" spans="2:19">
       <c r="B91" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
@@ -5792,7 +6016,7 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S91" s="1">
         <v>1.7524034E-3</v>
@@ -5820,7 +6044,7 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="S92" s="1">
         <v>1.7508483E-3</v>
@@ -5834,7 +6058,7 @@
         <v>2.1130060000000002E-3</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S93" s="1">
         <v>1.7504253E-3</v>
@@ -5848,7 +6072,7 @@
         <v>7.5739407000000004E-4</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S94" s="1">
         <v>1.7497809999999999E-3</v>
@@ -5856,7 +6080,7 @@
     </row>
     <row r="95" spans="2:19">
       <c r="F95" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G95" s="1">
         <v>0</v>
@@ -5870,13 +6094,13 @@
     </row>
     <row r="96" spans="2:19">
       <c r="F96" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G96" s="1">
         <v>0</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S96" s="1">
         <v>1.7392512999999999E-3</v>
@@ -5884,7 +6108,7 @@
     </row>
     <row r="97" spans="6:19">
       <c r="F97" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G97" s="1">
         <v>0</v>
@@ -5898,7 +6122,7 @@
     </row>
     <row r="98" spans="6:19">
       <c r="R98" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="S98" s="1">
         <v>1.735702E-3</v>
@@ -5906,7 +6130,7 @@
     </row>
     <row r="99" spans="6:19">
       <c r="R99" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="S99" s="1">
         <v>1.7328475E-3</v>
@@ -5914,7 +6138,7 @@
     </row>
     <row r="100" spans="6:19">
       <c r="R100" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S100" s="1">
         <v>1.7300798000000001E-3</v>
@@ -5922,7 +6146,7 @@
     </row>
     <row r="101" spans="6:19">
       <c r="R101" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="S101" s="1">
         <v>1.7250035000000001E-3</v>
@@ -5930,7 +6154,7 @@
     </row>
     <row r="102" spans="6:19">
       <c r="R102" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S102" s="1">
         <v>1.7228456E-3</v>
@@ -5938,7 +6162,7 @@
     </row>
     <row r="103" spans="6:19">
       <c r="R103" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="S103" s="1">
         <v>1.7223081999999999E-3</v>
@@ -5946,7 +6170,7 @@
     </row>
     <row r="104" spans="6:19">
       <c r="R104" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="S104" s="1">
         <v>1.7217539E-3</v>
@@ -5954,7 +6178,7 @@
     </row>
     <row r="105" spans="6:19">
       <c r="R105" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S105" s="1">
         <v>1.7124249E-3</v>
@@ -5962,7 +6186,7 @@
     </row>
     <row r="106" spans="6:19">
       <c r="R106" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="S106" s="1">
         <v>1.7120748999999999E-3</v>
@@ -5970,7 +6194,7 @@
     </row>
     <row r="107" spans="6:19">
       <c r="R107" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="S107" s="1">
         <v>1.7090235E-3</v>
@@ -5978,7 +6202,7 @@
     </row>
     <row r="108" spans="6:19">
       <c r="R108" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="S108" s="1">
         <v>1.7085532000000001E-3</v>
@@ -5986,7 +6210,7 @@
     </row>
     <row r="109" spans="6:19">
       <c r="R109" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="S109" s="1">
         <v>1.7069749999999999E-3</v>
@@ -5994,7 +6218,7 @@
     </row>
     <row r="110" spans="6:19">
       <c r="R110" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="S110" s="1">
         <v>1.7060856E-3</v>
@@ -6002,7 +6226,7 @@
     </row>
     <row r="111" spans="6:19">
       <c r="R111" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="S111" s="1">
         <v>1.7031685000000001E-3</v>
@@ -6010,7 +6234,7 @@
     </row>
     <row r="112" spans="6:19">
       <c r="R112" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="S112" s="1">
         <v>1.7026955999999999E-3</v>
@@ -6018,7 +6242,7 @@
     </row>
     <row r="113" spans="18:19">
       <c r="R113" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="S113" s="1">
         <v>1.7016170000000001E-3</v>
@@ -6026,7 +6250,7 @@
     </row>
     <row r="114" spans="18:19">
       <c r="R114" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="S114" s="1">
         <v>1.6998033E-3</v>
@@ -6034,7 +6258,7 @@
     </row>
     <row r="115" spans="18:19">
       <c r="R115" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="S115" s="1">
         <v>1.699063E-3</v>
@@ -6042,7 +6266,7 @@
     </row>
     <row r="116" spans="18:19">
       <c r="R116" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="S116" s="1">
         <v>1.6971645000000001E-3</v>
@@ -6050,7 +6274,7 @@
     </row>
     <row r="117" spans="18:19">
       <c r="R117" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="S117" s="1">
         <v>1.6947965000000001E-3</v>
@@ -6058,7 +6282,7 @@
     </row>
     <row r="118" spans="18:19">
       <c r="R118" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="S118" s="1">
         <v>1.6899063E-3</v>
@@ -6066,7 +6290,7 @@
     </row>
     <row r="119" spans="18:19">
       <c r="R119" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="S119" s="1">
         <v>1.6831350000000001E-3</v>
@@ -6074,7 +6298,7 @@
     </row>
     <row r="120" spans="18:19">
       <c r="R120" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="S120" s="1">
         <v>1.6802442000000001E-3</v>
@@ -6090,7 +6314,7 @@
     </row>
     <row r="122" spans="18:19">
       <c r="R122" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="S122" s="1">
         <v>1.6726342E-3</v>
@@ -6098,7 +6322,7 @@
     </row>
     <row r="123" spans="18:19">
       <c r="R123" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S123" s="1">
         <v>1.6675297999999999E-3</v>
@@ -6106,7 +6330,7 @@
     </row>
     <row r="124" spans="18:19">
       <c r="R124" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S124" s="1">
         <v>1.6673154999999999E-3</v>
@@ -6114,7 +6338,7 @@
     </row>
     <row r="125" spans="18:19">
       <c r="R125" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S125" s="1">
         <v>1.6665346999999999E-3</v>
@@ -6122,7 +6346,7 @@
     </row>
     <row r="126" spans="18:19">
       <c r="R126" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S126" s="1">
         <v>1.6522927000000001E-3</v>
@@ -6130,7 +6354,7 @@
     </row>
     <row r="127" spans="18:19">
       <c r="R127" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S127" s="1">
         <v>1.6513643999999999E-3</v>
@@ -6138,7 +6362,7 @@
     </row>
     <row r="128" spans="18:19">
       <c r="R128" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="S128" s="1">
         <v>1.6461388E-3</v>
@@ -6146,7 +6370,7 @@
     </row>
     <row r="129" spans="18:19">
       <c r="R129" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="S129" s="1">
         <v>1.6446334000000001E-3</v>
@@ -6154,7 +6378,7 @@
     </row>
     <row r="130" spans="18:19">
       <c r="R130" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="S130" s="1">
         <v>1.6416607999999999E-3</v>
@@ -6162,7 +6386,7 @@
     </row>
     <row r="131" spans="18:19">
       <c r="R131" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="S131" s="1">
         <v>1.6388348000000001E-3</v>
@@ -6170,7 +6394,7 @@
     </row>
     <row r="132" spans="18:19">
       <c r="R132" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="S132" s="1">
         <v>1.6387445000000001E-3</v>
@@ -6178,7 +6402,7 @@
     </row>
     <row r="133" spans="18:19">
       <c r="R133" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="S133" s="1">
         <v>1.6385864E-3</v>
@@ -6186,7 +6410,7 @@
     </row>
     <row r="134" spans="18:19">
       <c r="R134" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="S134" s="1">
         <v>1.6330183000000001E-3</v>
@@ -6194,7 +6418,7 @@
     </row>
     <row r="135" spans="18:19">
       <c r="R135" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="S135" s="1">
         <v>1.6312640999999999E-3</v>
@@ -6202,7 +6426,7 @@
     </row>
     <row r="136" spans="18:19">
       <c r="R136" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="S136" s="1">
         <v>1.6250936E-3</v>
@@ -6210,7 +6434,7 @@
     </row>
     <row r="137" spans="18:19">
       <c r="R137" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="S137" s="1">
         <v>1.6199472999999999E-3</v>
@@ -6218,7 +6442,7 @@
     </row>
     <row r="138" spans="18:19">
       <c r="R138" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="S138" s="1">
         <v>1.6196353E-3</v>
@@ -6226,7 +6450,7 @@
     </row>
     <row r="139" spans="18:19">
       <c r="R139" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="S139" s="1">
         <v>1.6193766E-3</v>
@@ -6234,7 +6458,7 @@
     </row>
     <row r="140" spans="18:19">
       <c r="R140" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="S140" s="1">
         <v>1.6186542E-3</v>
@@ -6242,7 +6466,7 @@
     </row>
     <row r="141" spans="18:19">
       <c r="R141" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="S141" s="1">
         <v>1.6127824E-3</v>
@@ -6250,7 +6474,7 @@
     </row>
     <row r="142" spans="18:19">
       <c r="R142" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="S142" s="1">
         <v>1.6126065000000001E-3</v>
@@ -6258,7 +6482,7 @@
     </row>
     <row r="143" spans="18:19">
       <c r="R143" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S143" s="1">
         <v>1.6117977999999999E-3</v>
@@ -6266,7 +6490,7 @@
     </row>
     <row r="144" spans="18:19">
       <c r="R144" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="S144" s="1">
         <v>1.6074304000000001E-3</v>
@@ -6274,7 +6498,7 @@
     </row>
     <row r="145" spans="18:19">
       <c r="R145" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="S145" s="1">
         <v>1.6057583E-3</v>
@@ -6282,7 +6506,7 @@
     </row>
     <row r="146" spans="18:19">
       <c r="R146" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="S146" s="1">
         <v>1.6015067E-3</v>
@@ -6298,7 +6522,7 @@
     </row>
     <row r="148" spans="18:19">
       <c r="R148" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="S148" s="1">
         <v>1.5959002E-3</v>
@@ -6306,7 +6530,7 @@
     </row>
     <row r="149" spans="18:19">
       <c r="R149" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="S149" s="1">
         <v>1.5938026000000001E-3</v>
@@ -6314,7 +6538,7 @@
     </row>
     <row r="150" spans="18:19">
       <c r="R150" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="S150" s="1">
         <v>1.5913844000000001E-3</v>
@@ -6322,7 +6546,7 @@
     </row>
     <row r="151" spans="18:19">
       <c r="R151" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="S151" s="1">
         <v>1.5885370999999999E-3</v>
@@ -6330,7 +6554,7 @@
     </row>
     <row r="152" spans="18:19">
       <c r="R152" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="S152" s="1">
         <v>1.5833001E-3</v>
@@ -6346,7 +6570,7 @@
     </row>
     <row r="154" spans="18:19">
       <c r="R154" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S154" s="1">
         <v>1.5803766000000001E-3</v>
@@ -6362,7 +6586,7 @@
     </row>
     <row r="156" spans="18:19">
       <c r="R156" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="S156" s="1">
         <v>1.5798814999999999E-3</v>
@@ -6370,7 +6594,7 @@
     </row>
     <row r="157" spans="18:19">
       <c r="R157" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="S157" s="1">
         <v>1.5752032999999999E-3</v>
@@ -6378,7 +6602,7 @@
     </row>
     <row r="158" spans="18:19">
       <c r="R158" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="S158" s="1">
         <v>1.5744737999999999E-3</v>
@@ -6386,7 +6610,7 @@
     </row>
     <row r="159" spans="18:19">
       <c r="R159" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="S159" s="1">
         <v>1.5713989E-3</v>
@@ -6394,7 +6618,7 @@
     </row>
     <row r="160" spans="18:19">
       <c r="R160" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="S160" s="1">
         <v>1.571114E-3</v>
@@ -6402,7 +6626,7 @@
     </row>
     <row r="161" spans="18:19">
       <c r="R161" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="S161" s="1">
         <v>1.5660818E-3</v>
@@ -6410,7 +6634,7 @@
     </row>
     <row r="162" spans="18:19">
       <c r="R162" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="S162" s="1">
         <v>1.5644348E-3</v>
@@ -6418,7 +6642,7 @@
     </row>
     <row r="163" spans="18:19">
       <c r="R163" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="S163" s="1">
         <v>1.5642531999999999E-3</v>
@@ -6426,7 +6650,7 @@
     </row>
     <row r="164" spans="18:19">
       <c r="R164" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="S164" s="1">
         <v>1.564249E-3</v>
@@ -6434,7 +6658,7 @@
     </row>
     <row r="165" spans="18:19">
       <c r="R165" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="S165" s="1">
         <v>1.5603186E-3</v>
@@ -6442,7 +6666,7 @@
     </row>
     <row r="166" spans="18:19">
       <c r="R166" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="S166" s="1">
         <v>1.5597720000000001E-3</v>
@@ -6450,7 +6674,7 @@
     </row>
     <row r="167" spans="18:19">
       <c r="R167" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="S167" s="1">
         <v>1.5592276E-3</v>
@@ -6458,7 +6682,7 @@
     </row>
     <row r="168" spans="18:19">
       <c r="R168" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="S168" s="1">
         <v>1.558519E-3</v>
@@ -6466,7 +6690,7 @@
     </row>
     <row r="169" spans="18:19">
       <c r="R169" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S169" s="1">
         <v>1.5494504000000001E-3</v>
@@ -6474,7 +6698,7 @@
     </row>
     <row r="170" spans="18:19">
       <c r="R170" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="S170" s="1">
         <v>1.5485999E-3</v>
@@ -6482,7 +6706,7 @@
     </row>
     <row r="171" spans="18:19">
       <c r="R171" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="S171" s="1">
         <v>1.5462403E-3</v>
@@ -6490,7 +6714,7 @@
     </row>
     <row r="172" spans="18:19">
       <c r="R172" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="S172" s="1">
         <v>1.5427215999999999E-3</v>
@@ -6498,7 +6722,7 @@
     </row>
     <row r="173" spans="18:19">
       <c r="R173" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="S173" s="1">
         <v>1.5419116E-3</v>
@@ -6506,7 +6730,7 @@
     </row>
     <row r="174" spans="18:19">
       <c r="R174" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="S174" s="1">
         <v>1.5413065000000001E-3</v>
@@ -6514,7 +6738,7 @@
     </row>
     <row r="175" spans="18:19">
       <c r="R175" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="S175" s="1">
         <v>1.5411826999999999E-3</v>
@@ -6522,7 +6746,7 @@
     </row>
     <row r="176" spans="18:19">
       <c r="R176" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="S176" s="1">
         <v>1.5405098999999999E-3</v>
@@ -6530,7 +6754,7 @@
     </row>
     <row r="177" spans="18:19">
       <c r="R177" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="S177" s="1">
         <v>1.5356565E-3</v>
@@ -6538,7 +6762,7 @@
     </row>
     <row r="178" spans="18:19">
       <c r="R178" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="S178" s="1">
         <v>1.5351627000000001E-3</v>
@@ -6554,7 +6778,7 @@
     </row>
     <row r="180" spans="18:19">
       <c r="R180" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S180" s="1">
         <v>1.5279798999999999E-3</v>
@@ -6562,7 +6786,7 @@
     </row>
     <row r="181" spans="18:19">
       <c r="R181" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="S181" s="1">
         <v>1.5275041999999999E-3</v>
@@ -6570,7 +6794,7 @@
     </row>
     <row r="182" spans="18:19">
       <c r="R182" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="S182" s="1">
         <v>1.5234406E-3</v>
@@ -6578,7 +6802,7 @@
     </row>
     <row r="183" spans="18:19">
       <c r="R183" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="S183" s="1">
         <v>1.5193558000000001E-3</v>
@@ -6586,7 +6810,7 @@
     </row>
     <row r="184" spans="18:19">
       <c r="R184" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="S184" s="1">
         <v>1.5158042E-3</v>
@@ -6594,7 +6818,7 @@
     </row>
     <row r="185" spans="18:19">
       <c r="R185" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="S185" s="1">
         <v>1.5142163E-3</v>
@@ -6610,7 +6834,7 @@
     </row>
     <row r="187" spans="18:19">
       <c r="R187" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S187" s="1">
         <v>1.5075157999999999E-3</v>
@@ -6618,7 +6842,7 @@
     </row>
     <row r="188" spans="18:19">
       <c r="R188" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="S188" s="1">
         <v>1.5070232E-3</v>
@@ -6626,7 +6850,7 @@
     </row>
     <row r="189" spans="18:19">
       <c r="R189" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="S189" s="1">
         <v>1.5047891999999999E-3</v>
@@ -6634,7 +6858,7 @@
     </row>
     <row r="190" spans="18:19">
       <c r="R190" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="S190" s="1">
         <v>1.5043458999999999E-3</v>
@@ -6642,7 +6866,7 @@
     </row>
     <row r="191" spans="18:19">
       <c r="R191" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="S191" s="1">
         <v>1.500836E-3</v>
@@ -6650,7 +6874,7 @@
     </row>
     <row r="192" spans="18:19">
       <c r="R192" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="S192" s="1">
         <v>1.4946988999999999E-3</v>
@@ -6658,7 +6882,7 @@
     </row>
     <row r="193" spans="18:19">
       <c r="R193" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="S193" s="1">
         <v>1.4943507E-3</v>
@@ -6666,7 +6890,7 @@
     </row>
     <row r="194" spans="18:19">
       <c r="R194" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S194" s="1">
         <v>1.4924440999999999E-3</v>
@@ -6674,7 +6898,7 @@
     </row>
     <row r="195" spans="18:19">
       <c r="R195" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="S195" s="1">
         <v>1.4920876E-3</v>
@@ -6682,7 +6906,7 @@
     </row>
     <row r="196" spans="18:19">
       <c r="R196" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="S196" s="1">
         <v>1.471752E-3</v>
@@ -6690,7 +6914,7 @@
     </row>
     <row r="197" spans="18:19">
       <c r="R197" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="S197" s="1">
         <v>1.4678327000000001E-3</v>
@@ -6698,7 +6922,7 @@
     </row>
     <row r="198" spans="18:19">
       <c r="R198" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="S198" s="1">
         <v>1.4578067000000001E-3</v>
@@ -6706,7 +6930,7 @@
     </row>
     <row r="199" spans="18:19">
       <c r="R199" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="S199" s="1">
         <v>1.4506212000000001E-3</v>
@@ -6714,7 +6938,7 @@
     </row>
     <row r="200" spans="18:19">
       <c r="R200" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="S200" s="1">
         <v>1.4490360999999999E-3</v>
@@ -6730,7 +6954,7 @@
     </row>
     <row r="202" spans="18:19">
       <c r="R202" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="S202" s="1">
         <v>1.4241035999999999E-3</v>
@@ -6738,7 +6962,7 @@
     </row>
     <row r="203" spans="18:19">
       <c r="R203" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="S203" s="1">
         <v>1.4202654999999999E-3</v>
@@ -6746,7 +6970,7 @@
     </row>
     <row r="204" spans="18:19">
       <c r="R204" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="S204" s="1">
         <v>1.4061362E-3</v>
@@ -6754,7 +6978,7 @@
     </row>
     <row r="205" spans="18:19">
       <c r="R205" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="S205" s="1">
         <v>1.3985969999999999E-3</v>
@@ -6762,7 +6986,7 @@
     </row>
     <row r="206" spans="18:19">
       <c r="R206" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S206" s="1">
         <v>1.3896799999999999E-3</v>
@@ -6770,7 +6994,7 @@
     </row>
     <row r="207" spans="18:19">
       <c r="R207" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="S207" s="1">
         <v>1.3132084000000001E-3</v>
@@ -6786,7 +7010,7 @@
     </row>
     <row r="209" spans="18:19">
       <c r="R209" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="S209" s="1">
         <v>4.4080877000000001E-4</v>
@@ -6794,7 +7018,7 @@
     </row>
     <row r="210" spans="18:19">
       <c r="R210" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="S210" s="1">
         <v>1.6875024E-4</v>
@@ -6802,7 +7026,7 @@
     </row>
     <row r="211" spans="18:19">
       <c r="R211" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="S211" s="1">
         <v>1.1308345000000001E-4</v>
@@ -6810,7 +7034,7 @@
     </row>
     <row r="212" spans="18:19">
       <c r="R212" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="S212" s="8">
         <v>6.6197374999999996E-5</v>
@@ -6818,7 +7042,7 @@
     </row>
     <row r="213" spans="18:19">
       <c r="R213" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S213" s="8">
         <v>3.5362296000000001E-5</v>
@@ -6826,7 +7050,7 @@
     </row>
     <row r="214" spans="18:19">
       <c r="R214" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S214" s="8">
         <v>3.3991069999999998E-5</v>
@@ -6834,7 +7058,7 @@
     </row>
     <row r="215" spans="18:19">
       <c r="R215" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S215" s="8">
         <v>3.3987720000000001E-5</v>
@@ -6842,7 +7066,7 @@
     </row>
     <row r="216" spans="18:19">
       <c r="R216" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="S216" s="8">
         <v>1.8927918000000001E-5</v>
@@ -6850,7 +7074,7 @@
     </row>
     <row r="217" spans="18:19">
       <c r="R217" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="S217" s="1">
         <v>0</v>
@@ -6858,7 +7082,7 @@
     </row>
     <row r="218" spans="18:19">
       <c r="R218" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="S218" s="1">
         <v>0</v>
@@ -6866,7 +7090,7 @@
     </row>
     <row r="219" spans="18:19">
       <c r="R219" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="S219" s="1">
         <v>0</v>
@@ -6874,7 +7098,7 @@
     </row>
     <row r="220" spans="18:19">
       <c r="R220" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="S220" s="1">
         <v>0</v>
@@ -6882,7 +7106,7 @@
     </row>
     <row r="221" spans="18:19">
       <c r="R221" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="S221" s="1">
         <v>0</v>
@@ -6890,7 +7114,7 @@
     </row>
     <row r="222" spans="18:19">
       <c r="R222" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="S222" s="1">
         <v>0</v>
@@ -6898,7 +7122,7 @@
     </row>
     <row r="223" spans="18:19">
       <c r="R223" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="S223" s="1">
         <v>0</v>
@@ -6906,7 +7130,7 @@
     </row>
     <row r="224" spans="18:19">
       <c r="R224" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="S224" s="1">
         <v>0</v>
@@ -6914,7 +7138,7 @@
     </row>
     <row r="225" spans="18:19">
       <c r="R225" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="S225" s="1">
         <v>0</v>
@@ -6922,7 +7146,7 @@
     </row>
     <row r="226" spans="18:19">
       <c r="R226" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="S226" s="1">
         <v>0</v>
@@ -6930,7 +7154,7 @@
     </row>
     <row r="227" spans="18:19">
       <c r="R227" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S227" s="1">
         <v>0</v>
@@ -6938,7 +7162,7 @@
     </row>
     <row r="228" spans="18:19">
       <c r="R228" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="S228" s="1">
         <v>0</v>
@@ -6946,7 +7170,7 @@
     </row>
     <row r="229" spans="18:19">
       <c r="R229" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="S229" s="1">
         <v>0</v>
@@ -6954,7 +7178,7 @@
     </row>
     <row r="230" spans="18:19">
       <c r="R230" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="S230" s="1">
         <v>0</v>
@@ -6962,7 +7186,7 @@
     </row>
     <row r="231" spans="18:19">
       <c r="R231" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="S231" s="1">
         <v>0</v>
@@ -6970,7 +7194,7 @@
     </row>
     <row r="232" spans="18:19">
       <c r="R232" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="S232" s="1">
         <v>0</v>
@@ -6978,7 +7202,7 @@
     </row>
     <row r="233" spans="18:19">
       <c r="R233" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="S233" s="1">
         <v>0</v>
@@ -6986,7 +7210,7 @@
     </row>
     <row r="234" spans="18:19">
       <c r="R234" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="S234" s="1">
         <v>0</v>
@@ -6994,7 +7218,7 @@
     </row>
     <row r="235" spans="18:19">
       <c r="R235" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="S235" s="1">
         <v>0</v>
@@ -7002,7 +7226,7 @@
     </row>
     <row r="236" spans="18:19">
       <c r="R236" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="S236" s="1">
         <v>0</v>
@@ -7010,7 +7234,7 @@
     </row>
     <row r="237" spans="18:19">
       <c r="R237" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="S237" s="1">
         <v>0</v>
@@ -7018,7 +7242,7 @@
     </row>
     <row r="238" spans="18:19">
       <c r="R238" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="S238" s="1">
         <v>0</v>
@@ -7026,7 +7250,7 @@
     </row>
     <row r="239" spans="18:19">
       <c r="R239" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="S239" s="1">
         <v>0</v>
@@ -7034,7 +7258,7 @@
     </row>
     <row r="240" spans="18:19">
       <c r="R240" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="S240" s="1">
         <v>0</v>
@@ -7042,7 +7266,7 @@
     </row>
     <row r="241" spans="18:19">
       <c r="R241" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="S241" s="1">
         <v>0</v>
@@ -7050,7 +7274,7 @@
     </row>
     <row r="242" spans="18:19">
       <c r="R242" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="S242" s="1">
         <v>0</v>
@@ -7058,7 +7282,7 @@
     </row>
     <row r="243" spans="18:19">
       <c r="R243" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="S243" s="1">
         <v>0</v>
@@ -7066,7 +7290,7 @@
     </row>
     <row r="244" spans="18:19">
       <c r="R244" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="S244" s="1">
         <v>0</v>
@@ -7074,7 +7298,7 @@
     </row>
     <row r="245" spans="18:19">
       <c r="R245" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="S245" s="1">
         <v>0</v>
@@ -7082,7 +7306,7 @@
     </row>
     <row r="246" spans="18:19">
       <c r="R246" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="S246" s="1">
         <v>0</v>
@@ -7090,7 +7314,7 @@
     </row>
     <row r="247" spans="18:19">
       <c r="R247" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="S247" s="1">
         <v>0</v>
@@ -7098,7 +7322,7 @@
     </row>
     <row r="248" spans="18:19">
       <c r="R248" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="S248" s="1">
         <v>0</v>
@@ -7106,7 +7330,7 @@
     </row>
     <row r="249" spans="18:19">
       <c r="R249" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="S249" s="1">
         <v>0</v>
@@ -7114,7 +7338,7 @@
     </row>
     <row r="250" spans="18:19">
       <c r="R250" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="S250" s="1">
         <v>0</v>
@@ -7122,7 +7346,7 @@
     </row>
     <row r="251" spans="18:19">
       <c r="R251" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="S251" s="1">
         <v>0</v>
@@ -7130,7 +7354,7 @@
     </row>
     <row r="252" spans="18:19">
       <c r="R252" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="S252" s="1">
         <v>0</v>
@@ -7138,7 +7362,7 @@
     </row>
     <row r="253" spans="18:19">
       <c r="R253" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="S253" s="1">
         <v>0</v>
@@ -7146,7 +7370,7 @@
     </row>
     <row r="254" spans="18:19">
       <c r="R254" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="S254" s="1">
         <v>0</v>
@@ -7154,7 +7378,7 @@
     </row>
     <row r="255" spans="18:19">
       <c r="R255" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="S255" s="1">
         <v>0</v>
@@ -7162,7 +7386,7 @@
     </row>
     <row r="256" spans="18:19">
       <c r="R256" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="S256" s="1">
         <v>0</v>
@@ -7170,7 +7394,7 @@
     </row>
     <row r="257" spans="18:19">
       <c r="R257" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="S257" s="1">
         <v>0</v>
@@ -7178,7 +7402,7 @@
     </row>
     <row r="258" spans="18:19">
       <c r="R258" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="S258" s="1">
         <v>0</v>
@@ -7186,7 +7410,7 @@
     </row>
     <row r="259" spans="18:19">
       <c r="R259" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="S259" s="1">
         <v>0</v>
@@ -7194,7 +7418,7 @@
     </row>
     <row r="260" spans="18:19">
       <c r="R260" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="S260" s="1">
         <v>0</v>
@@ -7202,7 +7426,7 @@
     </row>
     <row r="261" spans="18:19">
       <c r="R261" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="S261" s="1">
         <v>0</v>
@@ -7210,7 +7434,7 @@
     </row>
     <row r="262" spans="18:19">
       <c r="R262" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="S262" s="1">
         <v>0</v>
@@ -7218,7 +7442,7 @@
     </row>
     <row r="263" spans="18:19">
       <c r="R263" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="S263" s="1">
         <v>0</v>
@@ -7226,7 +7450,7 @@
     </row>
     <row r="264" spans="18:19">
       <c r="R264" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="S264" s="1">
         <v>0</v>
@@ -7234,7 +7458,7 @@
     </row>
     <row r="265" spans="18:19">
       <c r="R265" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="S265" s="1">
         <v>0</v>
@@ -7242,7 +7466,7 @@
     </row>
     <row r="266" spans="18:19">
       <c r="R266" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="S266" s="1">
         <v>0</v>
@@ -7250,7 +7474,7 @@
     </row>
     <row r="267" spans="18:19">
       <c r="R267" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="S267" s="1">
         <v>0</v>
@@ -7258,7 +7482,7 @@
     </row>
     <row r="268" spans="18:19">
       <c r="R268" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="S268" s="1">
         <v>0</v>
@@ -7266,7 +7490,7 @@
     </row>
     <row r="269" spans="18:19">
       <c r="R269" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="S269" s="1">
         <v>0</v>
@@ -7274,7 +7498,7 @@
     </row>
     <row r="270" spans="18:19">
       <c r="R270" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="S270" s="1">
         <v>0</v>
@@ -7282,7 +7506,7 @@
     </row>
     <row r="271" spans="18:19">
       <c r="R271" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="S271" s="1">
         <v>0</v>
@@ -7290,7 +7514,7 @@
     </row>
     <row r="272" spans="18:19">
       <c r="R272" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="S272" s="1">
         <v>0</v>
@@ -7298,7 +7522,7 @@
     </row>
     <row r="273" spans="18:19">
       <c r="R273" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="S273" s="1">
         <v>0</v>
@@ -7306,7 +7530,7 @@
     </row>
     <row r="274" spans="18:19">
       <c r="R274" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="S274" s="1">
         <v>0</v>
@@ -7314,7 +7538,7 @@
     </row>
     <row r="275" spans="18:19">
       <c r="R275" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="S275" s="1">
         <v>0</v>
@@ -7322,7 +7546,7 @@
     </row>
     <row r="276" spans="18:19">
       <c r="R276" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="S276" s="1">
         <v>0</v>
@@ -7330,7 +7554,7 @@
     </row>
     <row r="277" spans="18:19">
       <c r="R277" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="S277" s="1">
         <v>0</v>
@@ -7338,7 +7562,7 @@
     </row>
     <row r="278" spans="18:19">
       <c r="R278" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S278" s="1">
         <v>0</v>
@@ -7346,7 +7570,7 @@
     </row>
     <row r="279" spans="18:19">
       <c r="R279" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S279" s="1">
         <v>0</v>
@@ -7354,7 +7578,7 @@
     </row>
     <row r="280" spans="18:19">
       <c r="R280" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S280" s="1">
         <v>0</v>
@@ -7362,7 +7586,7 @@
     </row>
     <row r="281" spans="18:19">
       <c r="R281" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="S281" s="1">
         <v>0</v>
@@ -7370,7 +7594,7 @@
     </row>
     <row r="282" spans="18:19">
       <c r="R282" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="S282" s="1">
         <v>0</v>
@@ -7378,7 +7602,7 @@
     </row>
     <row r="283" spans="18:19">
       <c r="R283" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="S283" s="1">
         <v>0</v>
@@ -7386,7 +7610,7 @@
     </row>
     <row r="284" spans="18:19">
       <c r="R284" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="S284" s="1">
         <v>0</v>
@@ -7394,7 +7618,7 @@
     </row>
     <row r="285" spans="18:19">
       <c r="R285" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="S285" s="1">
         <v>0</v>
@@ -7402,7 +7626,7 @@
     </row>
     <row r="286" spans="18:19">
       <c r="R286" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="S286" s="1">
         <v>0</v>
@@ -7410,7 +7634,7 @@
     </row>
     <row r="287" spans="18:19">
       <c r="R287" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="S287" s="1">
         <v>0</v>
@@ -7418,7 +7642,7 @@
     </row>
     <row r="288" spans="18:19">
       <c r="R288" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="S288" s="1">
         <v>0</v>
@@ -7426,7 +7650,7 @@
     </row>
     <row r="289" spans="18:19">
       <c r="R289" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="S289" s="1">
         <v>0</v>
@@ -7434,7 +7658,7 @@
     </row>
     <row r="290" spans="18:19">
       <c r="R290" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="S290" s="1">
         <v>0</v>
@@ -7442,7 +7666,7 @@
     </row>
     <row r="291" spans="18:19">
       <c r="R291" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="S291" s="1">
         <v>0</v>
@@ -7450,7 +7674,7 @@
     </row>
     <row r="292" spans="18:19">
       <c r="R292" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="S292" s="1">
         <v>0</v>
@@ -7458,7 +7682,7 @@
     </row>
     <row r="293" spans="18:19">
       <c r="R293" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="S293" s="1">
         <v>0</v>
@@ -7466,7 +7690,7 @@
     </row>
     <row r="294" spans="18:19">
       <c r="R294" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="S294" s="1">
         <v>0</v>
@@ -7474,7 +7698,7 @@
     </row>
     <row r="295" spans="18:19">
       <c r="R295" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="S295" s="1">
         <v>0</v>
@@ -7482,7 +7706,7 @@
     </row>
     <row r="296" spans="18:19">
       <c r="R296" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="S296" s="1">
         <v>0</v>
@@ -7490,7 +7714,7 @@
     </row>
     <row r="297" spans="18:19">
       <c r="R297" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="S297" s="1">
         <v>0</v>
@@ -7498,7 +7722,7 @@
     </row>
     <row r="298" spans="18:19">
       <c r="R298" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="S298" s="1">
         <v>0</v>
@@ -7506,7 +7730,7 @@
     </row>
     <row r="299" spans="18:19">
       <c r="R299" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="S299" s="1">
         <v>0</v>
@@ -7514,7 +7738,7 @@
     </row>
     <row r="300" spans="18:19">
       <c r="R300" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="S300" s="1">
         <v>0</v>
@@ -7522,7 +7746,7 @@
     </row>
     <row r="301" spans="18:19">
       <c r="R301" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="S301" s="1">
         <v>0</v>
@@ -7530,7 +7754,7 @@
     </row>
     <row r="302" spans="18:19">
       <c r="R302" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="S302" s="1">
         <v>0</v>
@@ -7538,7 +7762,7 @@
     </row>
     <row r="303" spans="18:19">
       <c r="R303" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="S303" s="1">
         <v>0</v>
@@ -7546,7 +7770,7 @@
     </row>
     <row r="304" spans="18:19">
       <c r="R304" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="S304" s="1">
         <v>0</v>
@@ -7554,7 +7778,7 @@
     </row>
     <row r="305" spans="18:19">
       <c r="R305" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="S305" s="1">
         <v>0</v>
@@ -7562,7 +7786,7 @@
     </row>
     <row r="306" spans="18:19">
       <c r="R306" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="S306" s="1">
         <v>0</v>
@@ -7570,7 +7794,7 @@
     </row>
     <row r="307" spans="18:19">
       <c r="R307" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="S307" s="1">
         <v>0</v>
@@ -7578,7 +7802,7 @@
     </row>
     <row r="308" spans="18:19">
       <c r="R308" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="S308" s="1">
         <v>0</v>
@@ -7586,7 +7810,7 @@
     </row>
     <row r="309" spans="18:19">
       <c r="R309" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="S309" s="1">
         <v>0</v>
@@ -7594,7 +7818,7 @@
     </row>
     <row r="310" spans="18:19">
       <c r="R310" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="S310" s="1">
         <v>0</v>
@@ -7602,7 +7826,7 @@
     </row>
     <row r="311" spans="18:19">
       <c r="R311" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="S311" s="1">
         <v>0</v>
@@ -7610,7 +7834,7 @@
     </row>
     <row r="312" spans="18:19">
       <c r="R312" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="S312" s="1">
         <v>0</v>
@@ -7618,7 +7842,7 @@
     </row>
     <row r="313" spans="18:19">
       <c r="R313" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="S313" s="1">
         <v>0</v>
@@ -7626,7 +7850,7 @@
     </row>
     <row r="314" spans="18:19">
       <c r="R314" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="S314" s="1">
         <v>0</v>
@@ -7634,7 +7858,7 @@
     </row>
     <row r="315" spans="18:19">
       <c r="R315" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="S315" s="1">
         <v>0</v>
@@ -7642,7 +7866,7 @@
     </row>
     <row r="316" spans="18:19">
       <c r="R316" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="S316" s="1">
         <v>0</v>
@@ -7650,7 +7874,7 @@
     </row>
     <row r="317" spans="18:19">
       <c r="R317" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="S317" s="1">
         <v>0</v>
@@ -7658,7 +7882,7 @@
     </row>
     <row r="318" spans="18:19">
       <c r="R318" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="S318" s="1">
         <v>0</v>
@@ -7666,7 +7890,7 @@
     </row>
     <row r="319" spans="18:19">
       <c r="R319" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="S319" s="1">
         <v>0</v>
@@ -7674,7 +7898,7 @@
     </row>
     <row r="320" spans="18:19">
       <c r="R320" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="S320" s="1">
         <v>0</v>
@@ -7682,7 +7906,7 @@
     </row>
     <row r="321" spans="18:19">
       <c r="R321" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="S321" s="1">
         <v>0</v>
@@ -7690,7 +7914,7 @@
     </row>
     <row r="322" spans="18:19">
       <c r="R322" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="S322" s="1">
         <v>0</v>
@@ -7698,7 +7922,7 @@
     </row>
     <row r="323" spans="18:19">
       <c r="R323" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="S323" s="1">
         <v>0</v>
@@ -7706,7 +7930,7 @@
     </row>
     <row r="324" spans="18:19">
       <c r="R324" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="S324" s="1">
         <v>0</v>
@@ -7714,7 +7938,7 @@
     </row>
     <row r="325" spans="18:19">
       <c r="R325" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="S325" s="1">
         <v>0</v>
@@ -7722,7 +7946,7 @@
     </row>
     <row r="326" spans="18:19">
       <c r="R326" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="S326" s="1">
         <v>0</v>
@@ -7730,7 +7954,7 @@
     </row>
     <row r="327" spans="18:19">
       <c r="R327" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="S327" s="1">
         <v>0</v>
@@ -7738,7 +7962,7 @@
     </row>
     <row r="328" spans="18:19">
       <c r="R328" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="S328" s="1">
         <v>0</v>
@@ -7746,7 +7970,7 @@
     </row>
     <row r="329" spans="18:19">
       <c r="R329" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="S329" s="1">
         <v>0</v>
@@ -7754,7 +7978,7 @@
     </row>
     <row r="330" spans="18:19">
       <c r="R330" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="S330" s="1">
         <v>0</v>
@@ -7762,7 +7986,7 @@
     </row>
     <row r="331" spans="18:19">
       <c r="R331" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="S331" s="1">
         <v>0</v>
@@ -7770,7 +7994,7 @@
     </row>
     <row r="332" spans="18:19">
       <c r="R332" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="S332" s="1">
         <v>0</v>
@@ -7778,7 +8002,7 @@
     </row>
     <row r="333" spans="18:19">
       <c r="R333" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="S333" s="1">
         <v>0</v>
@@ -7786,7 +8010,7 @@
     </row>
     <row r="334" spans="18:19">
       <c r="R334" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="S334" s="1">
         <v>0</v>
@@ -7794,7 +8018,7 @@
     </row>
     <row r="335" spans="18:19">
       <c r="R335" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="S335" s="1">
         <v>0</v>
@@ -7802,7 +8026,7 @@
     </row>
     <row r="336" spans="18:19">
       <c r="R336" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="S336" s="1">
         <v>0</v>
@@ -7810,7 +8034,7 @@
     </row>
     <row r="337" spans="18:19">
       <c r="R337" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="S337" s="1">
         <v>0</v>
@@ -7818,7 +8042,7 @@
     </row>
     <row r="338" spans="18:19">
       <c r="R338" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="S338" s="1">
         <v>0</v>
@@ -7826,7 +8050,7 @@
     </row>
     <row r="339" spans="18:19">
       <c r="R339" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="S339" s="1">
         <v>0</v>
@@ -7834,7 +8058,7 @@
     </row>
     <row r="340" spans="18:19">
       <c r="R340" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="S340" s="1">
         <v>0</v>
@@ -7842,7 +8066,7 @@
     </row>
     <row r="341" spans="18:19">
       <c r="R341" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="S341" s="1">
         <v>0</v>
@@ -7850,7 +8074,7 @@
     </row>
     <row r="342" spans="18:19">
       <c r="R342" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="S342" s="1">
         <v>0</v>
@@ -7858,7 +8082,7 @@
     </row>
     <row r="343" spans="18:19">
       <c r="R343" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="S343" s="1">
         <v>0</v>
@@ -7866,7 +8090,7 @@
     </row>
     <row r="344" spans="18:19">
       <c r="R344" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="S344" s="1">
         <v>0</v>
@@ -7874,7 +8098,7 @@
     </row>
     <row r="345" spans="18:19">
       <c r="R345" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="S345" s="1">
         <v>0</v>
@@ -7882,7 +8106,7 @@
     </row>
     <row r="346" spans="18:19">
       <c r="R346" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="S346" s="1">
         <v>0</v>
@@ -7890,7 +8114,7 @@
     </row>
     <row r="347" spans="18:19">
       <c r="R347" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="S347" s="1">
         <v>0</v>
@@ -7898,7 +8122,7 @@
     </row>
     <row r="348" spans="18:19">
       <c r="R348" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="S348" s="1">
         <v>0</v>
@@ -7906,7 +8130,7 @@
     </row>
     <row r="349" spans="18:19">
       <c r="R349" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="S349" s="1">
         <v>0</v>
@@ -7914,7 +8138,7 @@
     </row>
     <row r="350" spans="18:19">
       <c r="R350" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="S350" s="1">
         <v>0</v>
@@ -7922,7 +8146,7 @@
     </row>
     <row r="351" spans="18:19">
       <c r="R351" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="S351" s="1">
         <v>0</v>
@@ -7950,14 +8174,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C19AEF-B212-42A2-B6A6-9D7BF18D40F8}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="11"/>
-    <col min="3" max="3" width="32" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="11" bestFit="1" customWidth="1"/>
@@ -7971,44 +8195,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" ht="45.6">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="I1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.8">
-      <c r="A2" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="26"/>
+      <c r="A2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="28"/>
       <c r="C2" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D2" s="10">
         <v>9000</v>
@@ -8020,14 +8244,14 @@
         <v>6.9999999999999896E-2</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17">
@@ -8036,10 +8260,10 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="22.8">
-      <c r="A3" s="19"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -8052,10 +8276,10 @@
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="68.400000000000006">
-      <c r="A4" s="19"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -8068,129 +8292,131 @@
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="45.6">
-      <c r="A5" s="19"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="45.6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J6" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="68.400000000000006">
-      <c r="A7" s="19"/>
-      <c r="B7" s="27"/>
+    </row>
+    <row r="7" spans="1:13" ht="91.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="16" t="s">
-        <v>167</v>
+        <v>498</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K7" s="17"/>
-      <c r="L7" s="29">
+      <c r="L7" s="19">
         <v>0.74002585508304697</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="45.6">
-      <c r="A8" s="19"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="16" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K8" s="17"/>
-      <c r="L8" s="29">
+      <c r="L8" s="19">
         <v>0.74001145813677704</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="22.8">
-      <c r="A9" s="19"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="15"/>
+    <row r="9" spans="1:13" ht="114">
+      <c r="A9" s="20"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="16" t="s">
+        <v>499</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -8202,8 +8428,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="22.8">
-      <c r="A10" s="19"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="15"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -8227,10 +8453,10 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="22"/>
+      <c r="A12" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="24"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -8242,8 +8468,8 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -8255,8 +8481,8 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -8268,8 +8494,8 @@
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -8281,8 +8507,8 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -8294,48 +8520,48 @@
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/lendingrisk/features.xlsx
+++ b/lendingrisk/features.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB1FF55-B5DB-4902-AB74-9113CA0AEC35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBB7846-C451-4A52-9706-FE220A05421F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="523">
   <si>
     <t>column</t>
   </si>
@@ -1493,10 +1493,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>loanAmnt*interestRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贷款金额*贷款利率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1605,6 +1601,98 @@
   </si>
   <si>
     <t>totalAcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loanAmnt / totalAcc </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款金额 / 信用总额度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanAmnt / annualIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款金额 / 年收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loanAmnt * interestRate / installment </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款金额*贷款利率 / 分期付款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanAmnt * interestRate / annuallncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款金额*贷款利率 / 年收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款等级 * 贷款发放年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款等级 * 贷款期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款子等级 * 贷款发放年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款子等级 * n2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款子等级 * 债务收入比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款期限 * 贷款利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级 * 贷款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ficoRangeLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ficoRangeHigh - ficoRangeLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fico区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（ficoRangeHigh - ficoRangeLow ）/ 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fico区间均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>installment * 12 /  annualIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分期付款金额 占每月的收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1677,7 +1765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1772,22 +1860,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1837,6 +1914,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1872,10 +1952,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2158,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2207,11 +2285,11 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>489</v>
+      <c r="I2" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="J2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.8" customHeight="1">
@@ -2230,11 +2308,11 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>488</v>
+      <c r="I3" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="J3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.8" customHeight="1">
@@ -2253,11 +2331,11 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="33" t="s">
-        <v>487</v>
+      <c r="I4" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="J4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.8" customHeight="1">
@@ -2276,16 +2354,16 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="33" t="s">
-        <v>486</v>
+      <c r="I5" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="J5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.8" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B6" s="5">
         <v>2.4456822999999999E-2</v>
@@ -2299,11 +2377,11 @@
       <c r="F6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J6" t="s">
         <v>492</v>
-      </c>
-      <c r="J6" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.8" customHeight="1">
@@ -2322,11 +2400,11 @@
       <c r="F7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J7" t="s">
         <v>496</v>
-      </c>
-      <c r="J7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.8" customHeight="1">
@@ -2345,13 +2423,16 @@
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>473</v>
+      <c r="I8" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J8" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.8" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B9" s="5">
         <v>1.072174E-2</v>
@@ -2365,13 +2446,16 @@
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>473</v>
+      <c r="I9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J9" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="13.8" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>515</v>
       </c>
       <c r="B10" s="5">
         <v>1.0674232000000001E-2</v>
@@ -2380,13 +2464,16 @@
         <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>473</v>
+      <c r="I10" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J10" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.8" customHeight="1">
@@ -2405,13 +2492,16 @@
       <c r="F11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>473</v>
+      <c r="I11" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J11" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.8" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B12" s="5">
         <v>1.0230319999999999E-2</v>
@@ -2425,8 +2515,11 @@
       <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>473</v>
+      <c r="I12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.8" customHeight="1">
@@ -2445,8 +2538,11 @@
       <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="33" t="s">
-        <v>473</v>
+      <c r="I13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.8" customHeight="1">
@@ -2463,8 +2559,11 @@
         <v>#N/A</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="I14" s="33" t="s">
-        <v>473</v>
+      <c r="I14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.8" customHeight="1">
@@ -2481,13 +2580,16 @@
         <v>69</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="I15" s="33" t="s">
-        <v>473</v>
+      <c r="I15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="13.8" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B16" s="5">
         <v>9.3079689999999993E-3</v>
@@ -2499,11 +2601,14 @@
         <v>62</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="I16" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.8" customHeight="1">
+      <c r="I16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13.8" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2517,11 +2622,14 @@
         <v>47</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="I17" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.8" customHeight="1">
+      <c r="I17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.8" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -2535,13 +2643,16 @@
         <v>72</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="I18" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.8" customHeight="1">
+      <c r="I18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13.8" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B19" s="5">
         <v>8.4222589999999996E-3</v>
@@ -2550,15 +2661,18 @@
         <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.8" customHeight="1">
+        <v>493</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="13.8" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="B20" s="5">
         <v>8.4214619999999994E-3</v>
@@ -2569,11 +2683,14 @@
       <c r="D20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.8" customHeight="1">
+      <c r="I20" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="J20" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.8" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -2586,11 +2703,14 @@
       <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.8" customHeight="1">
+      <c r="I21" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J21" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="13.8" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -2603,13 +2723,16 @@
       <c r="D22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.8" customHeight="1">
+      <c r="I22" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="13.8" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B23" s="5">
         <v>7.5843552999999998E-3</v>
@@ -2618,13 +2741,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.8" customHeight="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13.8" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2637,11 +2757,8 @@
       <c r="D24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.8" customHeight="1">
+    </row>
+    <row r="25" spans="1:10" ht="13.8" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>471</v>
       </c>
@@ -2654,11 +2771,8 @@
       <c r="D25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.8" customHeight="1">
+    </row>
+    <row r="26" spans="1:10" ht="13.8" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>472</v>
       </c>
@@ -2671,13 +2785,10 @@
       <c r="D26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="30" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.8" customHeight="1">
+    </row>
+    <row r="27" spans="1:10" ht="13.8" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B27" s="5">
         <v>7.0049142999999998E-3</v>
@@ -2686,11 +2797,10 @@
         <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" ht="13.8" customHeight="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.8" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -2704,7 +2814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.8" customHeight="1">
+    <row r="29" spans="1:10" ht="13.8" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -2718,9 +2828,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.8" customHeight="1">
+    <row r="30" spans="1:10" ht="13.8" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B30" s="5">
         <v>6.8339678000000001E-3</v>
@@ -2732,7 +2842,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.8" customHeight="1">
+    <row r="31" spans="1:10" ht="13.8" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -2746,9 +2856,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.8" customHeight="1">
+    <row r="32" spans="1:10" ht="13.8" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B32" s="5">
         <v>6.7740175999999996E-3</v>
@@ -2957,8 +3067,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D42">
-    <sortCondition descending="1" ref="B2:B42"/>
+  <sortState ref="A2:D35">
+    <sortCondition descending="1" ref="B2:B35"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2970,8 +3080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F2285A-0580-4E4D-8803-3C6614005D3B}">
   <dimension ref="A1:S351"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2979,10 +3089,13 @@
     <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="32.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="32.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="8.88671875" style="1"/>
     <col min="18" max="18" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -3054,7 +3167,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3063,7 +3176,7 @@
       <c r="C3" s="1">
         <v>0.15687483999999999</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3078,7 +3191,7 @@
       <c r="K3" s="1">
         <v>8.6779473260664E-2</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="21" t="s">
         <v>134</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -3087,7 +3200,7 @@
       <c r="O3" s="1">
         <v>8.6779473260664E-2</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="21" t="s">
         <v>468</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -3098,14 +3211,14 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="1">
         <v>0.10904612</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="1" t="s">
         <v>83</v>
       </c>
@@ -3118,14 +3231,14 @@
       <c r="K4" s="1">
         <v>8.3156358646470196E-2</v>
       </c>
-      <c r="M4" s="20"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="1" t="s">
         <v>84</v>
       </c>
       <c r="O4" s="1">
         <v>8.3156358646470196E-2</v>
       </c>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="21"/>
       <c r="R4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3134,14 +3247,14 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1.7676646000000001E-2</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="1" t="s">
         <v>84</v>
       </c>
@@ -3154,14 +3267,14 @@
       <c r="K5" s="1">
         <v>7.7924457655247206E-2</v>
       </c>
-      <c r="M5" s="20"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="O5" s="1">
         <v>7.7924457655247206E-2</v>
       </c>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="21"/>
       <c r="R5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3170,14 +3283,14 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="1">
         <v>1.5471423E-2</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3190,14 +3303,14 @@
       <c r="K6" s="1">
         <v>5.8626868320961603E-2</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="O6" s="1">
         <v>5.8626868320961603E-2</v>
       </c>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="21"/>
       <c r="R6" s="1" t="s">
         <v>43</v>
       </c>
@@ -3206,14 +3319,14 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="1">
         <v>1.4887176E-2</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3226,14 +3339,14 @@
       <c r="K7" s="1">
         <v>4.6898540701750799E-2</v>
       </c>
-      <c r="M7" s="20"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="1" t="s">
         <v>125</v>
       </c>
       <c r="O7" s="1">
         <v>4.6898540701750799E-2</v>
       </c>
-      <c r="Q7" s="20"/>
+      <c r="Q7" s="21"/>
       <c r="R7" s="1" t="s">
         <v>163</v>
       </c>
@@ -3242,14 +3355,14 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1">
         <v>1.3480304E-2</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="1" t="s">
         <v>85</v>
       </c>
@@ -3262,14 +3375,14 @@
       <c r="K8" s="1">
         <v>4.5084838918122899E-2</v>
       </c>
-      <c r="M8" s="20"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O8" s="1">
         <v>4.5084838918122899E-2</v>
       </c>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="21"/>
       <c r="R8" s="1" t="s">
         <v>164</v>
       </c>
@@ -3278,14 +3391,14 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>1.3272760999999999E-2</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
@@ -3298,14 +3411,14 @@
       <c r="K9" s="1">
         <v>4.2568888878130998E-2</v>
       </c>
-      <c r="M9" s="20"/>
+      <c r="M9" s="21"/>
       <c r="N9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="1">
         <v>4.2568888878130998E-2</v>
       </c>
-      <c r="Q9" s="20"/>
+      <c r="Q9" s="21"/>
       <c r="R9" s="1" t="s">
         <v>165</v>
       </c>
@@ -3314,14 +3427,14 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="1">
         <v>1.2245466E-2</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="1" t="s">
         <v>86</v>
       </c>
@@ -3334,14 +3447,14 @@
       <c r="K10" s="1">
         <v>4.0034278152206802E-2</v>
       </c>
-      <c r="M10" s="20"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="O10" s="1">
         <v>4.0034278152206802E-2</v>
       </c>
-      <c r="Q10" s="20"/>
+      <c r="Q10" s="21"/>
       <c r="R10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3438,7 +3551,7 @@
       <c r="O13" s="1">
         <v>2.93445225306222E-2</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="22">
         <v>0.74002585508304697</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -3449,7 +3562,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="23">
+      <c r="A14" s="24">
         <v>0.73441130689071998</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3458,7 +3571,7 @@
       <c r="C14" s="1">
         <v>6.3687893999999998E-3</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="22">
         <v>0.73510656551536202</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -3473,7 +3586,7 @@
       <c r="K14" s="1">
         <v>2.6720790086233299E-2</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="22">
         <v>0.72997009436355098</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -3482,7 +3595,7 @@
       <c r="O14" s="1">
         <v>2.6720790086233299E-2</v>
       </c>
-      <c r="Q14" s="21"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="1" t="s">
         <v>42</v>
       </c>
@@ -3491,14 +3604,14 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>6.3161880000000004E-3</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="1" t="s">
         <v>92</v>
       </c>
@@ -3511,14 +3624,14 @@
       <c r="K15" s="1">
         <v>2.6108165300773999E-2</v>
       </c>
-      <c r="M15" s="21"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="1" t="s">
         <v>100</v>
       </c>
       <c r="O15" s="1">
         <v>2.6108165300773999E-2</v>
       </c>
-      <c r="Q15" s="21"/>
+      <c r="Q15" s="22"/>
       <c r="R15" s="1" t="s">
         <v>168</v>
       </c>
@@ -3527,14 +3640,14 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>6.0761160000000003E-3</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
@@ -3547,14 +3660,14 @@
       <c r="K16" s="1">
         <v>2.24612101712004E-2</v>
       </c>
-      <c r="M16" s="21"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="1" t="s">
         <v>90</v>
       </c>
       <c r="O16" s="1">
         <v>2.24612101712004E-2</v>
       </c>
-      <c r="Q16" s="21"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="1" t="s">
         <v>17</v>
       </c>
@@ -3563,14 +3676,14 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="1">
         <v>6.0167494000000002E-3</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
@@ -3583,14 +3696,14 @@
       <c r="K17" s="1">
         <v>2.0578158165285802E-2</v>
       </c>
-      <c r="M17" s="21"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O17" s="1">
         <v>2.0578158165285802E-2</v>
       </c>
-      <c r="Q17" s="21"/>
+      <c r="Q17" s="22"/>
       <c r="R17" s="1" t="s">
         <v>3</v>
       </c>
@@ -3599,14 +3712,14 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="1">
         <v>5.856338E-3</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
@@ -3619,14 +3732,14 @@
       <c r="K18" s="1">
         <v>1.8603863970834401E-2</v>
       </c>
-      <c r="M18" s="21"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="1" t="s">
         <v>123</v>
       </c>
       <c r="O18" s="1">
         <v>1.8603863970834401E-2</v>
       </c>
-      <c r="Q18" s="21"/>
+      <c r="Q18" s="22"/>
       <c r="R18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3635,14 +3748,14 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="1">
         <v>5.7501499999999999E-3</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
@@ -3655,14 +3768,14 @@
       <c r="K19" s="1">
         <v>1.6565634807779901E-2</v>
       </c>
-      <c r="M19" s="21"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="O19" s="1">
         <v>1.6565634807779901E-2</v>
       </c>
-      <c r="Q19" s="21"/>
+      <c r="Q19" s="22"/>
       <c r="R19" s="1" t="s">
         <v>169</v>
       </c>
@@ -3671,14 +3784,14 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1">
         <v>5.6187412999999997E-3</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="1" t="s">
         <v>90</v>
       </c>
@@ -3691,14 +3804,14 @@
       <c r="K20" s="1">
         <v>1.5240059612740499E-2</v>
       </c>
-      <c r="M20" s="21"/>
+      <c r="M20" s="22"/>
       <c r="N20" s="1" t="s">
         <v>103</v>
       </c>
       <c r="O20" s="1">
         <v>1.5240059612740499E-2</v>
       </c>
-      <c r="Q20" s="21"/>
+      <c r="Q20" s="22"/>
       <c r="R20" s="1" t="s">
         <v>44</v>
       </c>
@@ -3725,7 +3838,7 @@
       <c r="K21" s="1">
         <v>1.45933149076039E-2</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="23">
         <v>0.72777140027012199</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -3734,7 +3847,7 @@
       <c r="O21" s="1">
         <v>1.45933149076039E-2</v>
       </c>
-      <c r="Q21" s="21"/>
+      <c r="Q21" s="22"/>
       <c r="R21" s="1" t="s">
         <v>170</v>
       </c>
@@ -3761,7 +3874,7 @@
       <c r="K22" s="1">
         <v>1.2850105397304299E-2</v>
       </c>
-      <c r="M22" s="22"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="1" t="s">
         <v>43</v>
       </c>
@@ -3794,7 +3907,7 @@
       <c r="K23" s="1">
         <v>1.14794267665998E-2</v>
       </c>
-      <c r="M23" s="22"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="1" t="s">
         <v>88</v>
       </c>
@@ -3827,7 +3940,7 @@
       <c r="K24" s="1">
         <v>1.0891291274876201E-2</v>
       </c>
-      <c r="M24" s="22"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="1" t="s">
         <v>11</v>
       </c>
@@ -3860,7 +3973,7 @@
       <c r="K25" s="1">
         <v>1.02821238073545E-2</v>
       </c>
-      <c r="M25" s="22"/>
+      <c r="M25" s="23"/>
       <c r="N25" s="1" t="s">
         <v>99</v>
       </c>
@@ -8174,8 +8287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C19AEF-B212-42A2-B6A6-9D7BF18D40F8}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8195,8 +8308,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" ht="45.6">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="12" t="s">
         <v>145</v>
       </c>
@@ -8227,10 +8340,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.8">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="15" t="s">
         <v>136</v>
       </c>
@@ -8260,8 +8373,8 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="22.8">
-      <c r="A3" s="20"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="15" t="s">
         <v>148</v>
       </c>
@@ -8276,8 +8389,8 @@
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="68.400000000000006">
-      <c r="A4" s="20"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="16" t="s">
         <v>137</v>
       </c>
@@ -8292,8 +8405,8 @@
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="45.6">
-      <c r="A5" s="20"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="16" t="s">
         <v>159</v>
       </c>
@@ -8322,8 +8435,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="45.6">
-      <c r="A6" s="20"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="16" t="s">
         <v>160</v>
       </c>
@@ -8347,15 +8460,15 @@
         <v>157</v>
       </c>
       <c r="K6" s="17"/>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="19" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="91.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>152</v>
@@ -8377,13 +8490,13 @@
         <v>157</v>
       </c>
       <c r="K7" s="17"/>
-      <c r="L7" s="19">
+      <c r="L7" s="20">
         <v>0.74002585508304697</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="45.6">
-      <c r="A8" s="20"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="16" t="s">
         <v>469</v>
       </c>
@@ -8407,29 +8520,43 @@
         <v>157</v>
       </c>
       <c r="K8" s="17"/>
-      <c r="L8" s="19">
+      <c r="L8" s="20">
         <v>0.74001145813677704</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="114">
-      <c r="A9" s="20"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+        <v>498</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>151</v>
+      </c>
       <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="L9" s="18">
+        <v>0.74001831883371005</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="22.8">
-      <c r="A10" s="20"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="15"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -8453,10 +8580,10 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -8468,8 +8595,8 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -8481,8 +8608,8 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -8494,8 +8621,8 @@
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -8507,8 +8634,8 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -8520,48 +8647,48 @@
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/lendingrisk/features.xlsx
+++ b/lendingrisk/features.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBB7846-C451-4A52-9706-FE220A05421F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE0C3EA-E000-4A7E-B6A5-0A71F0071125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="524">
   <si>
     <t>column</t>
   </si>
@@ -1693,6 +1693,11 @@
   </si>
   <si>
     <t>分期付款金额 占每月的收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all methods
+选importance &gt;0.002的feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1922,6 +1927,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1952,8 +1959,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2236,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2247,7 +2252,7 @@
     <col min="3" max="3" width="6.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2265,7 +2270,7 @@
       <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="21" t="s">
         <v>470</v>
       </c>
     </row>
@@ -3167,7 +3172,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3176,7 +3181,7 @@
       <c r="C3" s="1">
         <v>0.15687483999999999</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="23" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3191,7 +3196,7 @@
       <c r="K3" s="1">
         <v>8.6779473260664E-2</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="23" t="s">
         <v>134</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -3200,7 +3205,7 @@
       <c r="O3" s="1">
         <v>8.6779473260664E-2</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="23" t="s">
         <v>468</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -3211,14 +3216,14 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="1">
         <v>0.10904612</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="1" t="s">
         <v>83</v>
       </c>
@@ -3231,14 +3236,14 @@
       <c r="K4" s="1">
         <v>8.3156358646470196E-2</v>
       </c>
-      <c r="M4" s="21"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="1" t="s">
         <v>84</v>
       </c>
       <c r="O4" s="1">
         <v>8.3156358646470196E-2</v>
       </c>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="23"/>
       <c r="R4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3247,14 +3252,14 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1.7676646000000001E-2</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="1" t="s">
         <v>84</v>
       </c>
@@ -3267,14 +3272,14 @@
       <c r="K5" s="1">
         <v>7.7924457655247206E-2</v>
       </c>
-      <c r="M5" s="21"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="O5" s="1">
         <v>7.7924457655247206E-2</v>
       </c>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="23"/>
       <c r="R5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3283,14 +3288,14 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="1">
         <v>1.5471423E-2</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3303,14 +3308,14 @@
       <c r="K6" s="1">
         <v>5.8626868320961603E-2</v>
       </c>
-      <c r="M6" s="21"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="O6" s="1">
         <v>5.8626868320961603E-2</v>
       </c>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="23"/>
       <c r="R6" s="1" t="s">
         <v>43</v>
       </c>
@@ -3319,14 +3324,14 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="1">
         <v>1.4887176E-2</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3339,14 +3344,14 @@
       <c r="K7" s="1">
         <v>4.6898540701750799E-2</v>
       </c>
-      <c r="M7" s="21"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="1" t="s">
         <v>125</v>
       </c>
       <c r="O7" s="1">
         <v>4.6898540701750799E-2</v>
       </c>
-      <c r="Q7" s="21"/>
+      <c r="Q7" s="23"/>
       <c r="R7" s="1" t="s">
         <v>163</v>
       </c>
@@ -3355,14 +3360,14 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1">
         <v>1.3480304E-2</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="1" t="s">
         <v>85</v>
       </c>
@@ -3375,14 +3380,14 @@
       <c r="K8" s="1">
         <v>4.5084838918122899E-2</v>
       </c>
-      <c r="M8" s="21"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O8" s="1">
         <v>4.5084838918122899E-2</v>
       </c>
-      <c r="Q8" s="21"/>
+      <c r="Q8" s="23"/>
       <c r="R8" s="1" t="s">
         <v>164</v>
       </c>
@@ -3391,14 +3396,14 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>1.3272760999999999E-2</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
@@ -3411,14 +3416,14 @@
       <c r="K9" s="1">
         <v>4.2568888878130998E-2</v>
       </c>
-      <c r="M9" s="21"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="1">
         <v>4.2568888878130998E-2</v>
       </c>
-      <c r="Q9" s="21"/>
+      <c r="Q9" s="23"/>
       <c r="R9" s="1" t="s">
         <v>165</v>
       </c>
@@ -3427,14 +3432,14 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="1">
         <v>1.2245466E-2</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="1" t="s">
         <v>86</v>
       </c>
@@ -3447,14 +3452,14 @@
       <c r="K10" s="1">
         <v>4.0034278152206802E-2</v>
       </c>
-      <c r="M10" s="21"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="O10" s="1">
         <v>4.0034278152206802E-2</v>
       </c>
-      <c r="Q10" s="21"/>
+      <c r="Q10" s="23"/>
       <c r="R10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3551,7 +3556,7 @@
       <c r="O13" s="1">
         <v>2.93445225306222E-2</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="24">
         <v>0.74002585508304697</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -3562,7 +3567,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="24">
+      <c r="A14" s="26">
         <v>0.73441130689071998</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3571,7 +3576,7 @@
       <c r="C14" s="1">
         <v>6.3687893999999998E-3</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="24">
         <v>0.73510656551536202</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -3586,7 +3591,7 @@
       <c r="K14" s="1">
         <v>2.6720790086233299E-2</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="24">
         <v>0.72997009436355098</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -3595,7 +3600,7 @@
       <c r="O14" s="1">
         <v>2.6720790086233299E-2</v>
       </c>
-      <c r="Q14" s="22"/>
+      <c r="Q14" s="24"/>
       <c r="R14" s="1" t="s">
         <v>42</v>
       </c>
@@ -3604,14 +3609,14 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>6.3161880000000004E-3</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="1" t="s">
         <v>92</v>
       </c>
@@ -3624,14 +3629,14 @@
       <c r="K15" s="1">
         <v>2.6108165300773999E-2</v>
       </c>
-      <c r="M15" s="22"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="1" t="s">
         <v>100</v>
       </c>
       <c r="O15" s="1">
         <v>2.6108165300773999E-2</v>
       </c>
-      <c r="Q15" s="22"/>
+      <c r="Q15" s="24"/>
       <c r="R15" s="1" t="s">
         <v>168</v>
       </c>
@@ -3640,14 +3645,14 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="24"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>6.0761160000000003E-3</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
@@ -3660,14 +3665,14 @@
       <c r="K16" s="1">
         <v>2.24612101712004E-2</v>
       </c>
-      <c r="M16" s="22"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="1" t="s">
         <v>90</v>
       </c>
       <c r="O16" s="1">
         <v>2.24612101712004E-2</v>
       </c>
-      <c r="Q16" s="22"/>
+      <c r="Q16" s="24"/>
       <c r="R16" s="1" t="s">
         <v>17</v>
       </c>
@@ -3676,14 +3681,14 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="24"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="1">
         <v>6.0167494000000002E-3</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
@@ -3696,14 +3701,14 @@
       <c r="K17" s="1">
         <v>2.0578158165285802E-2</v>
       </c>
-      <c r="M17" s="22"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O17" s="1">
         <v>2.0578158165285802E-2</v>
       </c>
-      <c r="Q17" s="22"/>
+      <c r="Q17" s="24"/>
       <c r="R17" s="1" t="s">
         <v>3</v>
       </c>
@@ -3712,14 +3717,14 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="24"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="1">
         <v>5.856338E-3</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
@@ -3732,14 +3737,14 @@
       <c r="K18" s="1">
         <v>1.8603863970834401E-2</v>
       </c>
-      <c r="M18" s="22"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="1" t="s">
         <v>123</v>
       </c>
       <c r="O18" s="1">
         <v>1.8603863970834401E-2</v>
       </c>
-      <c r="Q18" s="22"/>
+      <c r="Q18" s="24"/>
       <c r="R18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3748,14 +3753,14 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="24"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="1">
         <v>5.7501499999999999E-3</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
@@ -3768,14 +3773,14 @@
       <c r="K19" s="1">
         <v>1.6565634807779901E-2</v>
       </c>
-      <c r="M19" s="22"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="O19" s="1">
         <v>1.6565634807779901E-2</v>
       </c>
-      <c r="Q19" s="22"/>
+      <c r="Q19" s="24"/>
       <c r="R19" s="1" t="s">
         <v>169</v>
       </c>
@@ -3784,14 +3789,14 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="24"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1">
         <v>5.6187412999999997E-3</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="1" t="s">
         <v>90</v>
       </c>
@@ -3804,14 +3809,14 @@
       <c r="K20" s="1">
         <v>1.5240059612740499E-2</v>
       </c>
-      <c r="M20" s="22"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="1" t="s">
         <v>103</v>
       </c>
       <c r="O20" s="1">
         <v>1.5240059612740499E-2</v>
       </c>
-      <c r="Q20" s="22"/>
+      <c r="Q20" s="24"/>
       <c r="R20" s="1" t="s">
         <v>44</v>
       </c>
@@ -3838,7 +3843,7 @@
       <c r="K21" s="1">
         <v>1.45933149076039E-2</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="25">
         <v>0.72777140027012199</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -3847,7 +3852,7 @@
       <c r="O21" s="1">
         <v>1.45933149076039E-2</v>
       </c>
-      <c r="Q21" s="22"/>
+      <c r="Q21" s="24"/>
       <c r="R21" s="1" t="s">
         <v>170</v>
       </c>
@@ -3874,7 +3879,7 @@
       <c r="K22" s="1">
         <v>1.2850105397304299E-2</v>
       </c>
-      <c r="M22" s="23"/>
+      <c r="M22" s="25"/>
       <c r="N22" s="1" t="s">
         <v>43</v>
       </c>
@@ -3907,7 +3912,7 @@
       <c r="K23" s="1">
         <v>1.14794267665998E-2</v>
       </c>
-      <c r="M23" s="23"/>
+      <c r="M23" s="25"/>
       <c r="N23" s="1" t="s">
         <v>88</v>
       </c>
@@ -3940,7 +3945,7 @@
       <c r="K24" s="1">
         <v>1.0891291274876201E-2</v>
       </c>
-      <c r="M24" s="23"/>
+      <c r="M24" s="25"/>
       <c r="N24" s="1" t="s">
         <v>11</v>
       </c>
@@ -3973,7 +3978,7 @@
       <c r="K25" s="1">
         <v>1.02821238073545E-2</v>
       </c>
-      <c r="M25" s="23"/>
+      <c r="M25" s="25"/>
       <c r="N25" s="1" t="s">
         <v>99</v>
       </c>
@@ -8287,8 +8292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C19AEF-B212-42A2-B6A6-9D7BF18D40F8}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8308,8 +8313,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" ht="45.6">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="12" t="s">
         <v>145</v>
       </c>
@@ -8340,10 +8345,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.8">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="15" t="s">
         <v>136</v>
       </c>
@@ -8373,8 +8378,8 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="22.8">
-      <c r="A3" s="21"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="15" t="s">
         <v>148</v>
       </c>
@@ -8389,8 +8394,8 @@
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="68.400000000000006">
-      <c r="A4" s="21"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="16" t="s">
         <v>137</v>
       </c>
@@ -8405,8 +8410,8 @@
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="45.6">
-      <c r="A5" s="21"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="16" t="s">
         <v>159</v>
       </c>
@@ -8435,8 +8440,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="45.6">
-      <c r="A6" s="21"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="16" t="s">
         <v>160</v>
       </c>
@@ -8465,8 +8470,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="91.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="16" t="s">
         <v>497</v>
       </c>
@@ -8495,8 +8500,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="45.6">
-      <c r="A8" s="21"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="16" t="s">
         <v>469</v>
       </c>
@@ -8525,8 +8530,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="114">
-      <c r="A9" s="21"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="16" t="s">
         <v>498</v>
       </c>
@@ -8554,19 +8559,35 @@
         <v>0.74001831883371005</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="22.8">
-      <c r="A10" s="21"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+    <row r="10" spans="1:13" ht="68.400000000000006">
+      <c r="A10" s="23"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="D10" s="17">
+        <v>7000</v>
+      </c>
+      <c r="E10" s="17">
+        <v>8</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.8</v>
+      </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="I10" s="17">
+        <v>3</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1</v>
+      </c>
       <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="L10" s="20">
+        <v>0.74066974933891205</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="D11" s="17"/>
@@ -8580,10 +8601,10 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="27"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -8595,8 +8616,8 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -8608,8 +8629,8 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -8621,8 +8642,8 @@
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -8634,8 +8655,8 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -8647,48 +8668,48 @@
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/lendingrisk/features.xlsx
+++ b/lendingrisk/features.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE0C3EA-E000-4A7E-B6A5-0A71F0071125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6151ECA9-8C74-4F06-9FDB-C7EF789353BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="528">
   <si>
     <t>column</t>
   </si>
@@ -1698,6 +1698,27 @@
   <si>
     <t>all methods
 选importance &gt;0.002的feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fillnan = -999
+all methods
+选importance &gt;0.002的feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000
+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.740561907383088
+0.7409863141484249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all methods
+选择方差&gt;0.8的特征</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1869,7 +1890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1929,6 +1950,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3172,7 +3199,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3181,7 +3208,7 @@
       <c r="C3" s="1">
         <v>0.15687483999999999</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="25" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3196,7 +3223,7 @@
       <c r="K3" s="1">
         <v>8.6779473260664E-2</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="25" t="s">
         <v>134</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -3205,7 +3232,7 @@
       <c r="O3" s="1">
         <v>8.6779473260664E-2</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="25" t="s">
         <v>468</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -3216,14 +3243,14 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="1">
         <v>0.10904612</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="1" t="s">
         <v>83</v>
       </c>
@@ -3236,14 +3263,14 @@
       <c r="K4" s="1">
         <v>8.3156358646470196E-2</v>
       </c>
-      <c r="M4" s="23"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="1" t="s">
         <v>84</v>
       </c>
       <c r="O4" s="1">
         <v>8.3156358646470196E-2</v>
       </c>
-      <c r="Q4" s="23"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3252,14 +3279,14 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1.7676646000000001E-2</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="1" t="s">
         <v>84</v>
       </c>
@@ -3272,14 +3299,14 @@
       <c r="K5" s="1">
         <v>7.7924457655247206E-2</v>
       </c>
-      <c r="M5" s="23"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="O5" s="1">
         <v>7.7924457655247206E-2</v>
       </c>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="25"/>
       <c r="R5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3288,14 +3315,14 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="1">
         <v>1.5471423E-2</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3308,14 +3335,14 @@
       <c r="K6" s="1">
         <v>5.8626868320961603E-2</v>
       </c>
-      <c r="M6" s="23"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="O6" s="1">
         <v>5.8626868320961603E-2</v>
       </c>
-      <c r="Q6" s="23"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="1" t="s">
         <v>43</v>
       </c>
@@ -3324,14 +3351,14 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="1">
         <v>1.4887176E-2</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3344,14 +3371,14 @@
       <c r="K7" s="1">
         <v>4.6898540701750799E-2</v>
       </c>
-      <c r="M7" s="23"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="1" t="s">
         <v>125</v>
       </c>
       <c r="O7" s="1">
         <v>4.6898540701750799E-2</v>
       </c>
-      <c r="Q7" s="23"/>
+      <c r="Q7" s="25"/>
       <c r="R7" s="1" t="s">
         <v>163</v>
       </c>
@@ -3360,14 +3387,14 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1">
         <v>1.3480304E-2</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="1" t="s">
         <v>85</v>
       </c>
@@ -3380,14 +3407,14 @@
       <c r="K8" s="1">
         <v>4.5084838918122899E-2</v>
       </c>
-      <c r="M8" s="23"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O8" s="1">
         <v>4.5084838918122899E-2</v>
       </c>
-      <c r="Q8" s="23"/>
+      <c r="Q8" s="25"/>
       <c r="R8" s="1" t="s">
         <v>164</v>
       </c>
@@ -3396,14 +3423,14 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>1.3272760999999999E-2</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
@@ -3416,14 +3443,14 @@
       <c r="K9" s="1">
         <v>4.2568888878130998E-2</v>
       </c>
-      <c r="M9" s="23"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="1">
         <v>4.2568888878130998E-2</v>
       </c>
-      <c r="Q9" s="23"/>
+      <c r="Q9" s="25"/>
       <c r="R9" s="1" t="s">
         <v>165</v>
       </c>
@@ -3432,14 +3459,14 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="1">
         <v>1.2245466E-2</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="1" t="s">
         <v>86</v>
       </c>
@@ -3452,14 +3479,14 @@
       <c r="K10" s="1">
         <v>4.0034278152206802E-2</v>
       </c>
-      <c r="M10" s="23"/>
+      <c r="M10" s="25"/>
       <c r="N10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="O10" s="1">
         <v>4.0034278152206802E-2</v>
       </c>
-      <c r="Q10" s="23"/>
+      <c r="Q10" s="25"/>
       <c r="R10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3556,7 +3583,7 @@
       <c r="O13" s="1">
         <v>2.93445225306222E-2</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="26">
         <v>0.74002585508304697</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -3567,7 +3594,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="26">
+      <c r="A14" s="28">
         <v>0.73441130689071998</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3576,7 +3603,7 @@
       <c r="C14" s="1">
         <v>6.3687893999999998E-3</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="26">
         <v>0.73510656551536202</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -3591,7 +3618,7 @@
       <c r="K14" s="1">
         <v>2.6720790086233299E-2</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="26">
         <v>0.72997009436355098</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -3600,7 +3627,7 @@
       <c r="O14" s="1">
         <v>2.6720790086233299E-2</v>
       </c>
-      <c r="Q14" s="24"/>
+      <c r="Q14" s="26"/>
       <c r="R14" s="1" t="s">
         <v>42</v>
       </c>
@@ -3609,14 +3636,14 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="26"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>6.3161880000000004E-3</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="1" t="s">
         <v>92</v>
       </c>
@@ -3629,14 +3656,14 @@
       <c r="K15" s="1">
         <v>2.6108165300773999E-2</v>
       </c>
-      <c r="M15" s="24"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="1" t="s">
         <v>100</v>
       </c>
       <c r="O15" s="1">
         <v>2.6108165300773999E-2</v>
       </c>
-      <c r="Q15" s="24"/>
+      <c r="Q15" s="26"/>
       <c r="R15" s="1" t="s">
         <v>168</v>
       </c>
@@ -3645,14 +3672,14 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="26"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>6.0761160000000003E-3</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
@@ -3665,14 +3692,14 @@
       <c r="K16" s="1">
         <v>2.24612101712004E-2</v>
       </c>
-      <c r="M16" s="24"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="1" t="s">
         <v>90</v>
       </c>
       <c r="O16" s="1">
         <v>2.24612101712004E-2</v>
       </c>
-      <c r="Q16" s="24"/>
+      <c r="Q16" s="26"/>
       <c r="R16" s="1" t="s">
         <v>17</v>
       </c>
@@ -3681,14 +3708,14 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="26"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="1">
         <v>6.0167494000000002E-3</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
@@ -3701,14 +3728,14 @@
       <c r="K17" s="1">
         <v>2.0578158165285802E-2</v>
       </c>
-      <c r="M17" s="24"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O17" s="1">
         <v>2.0578158165285802E-2</v>
       </c>
-      <c r="Q17" s="24"/>
+      <c r="Q17" s="26"/>
       <c r="R17" s="1" t="s">
         <v>3</v>
       </c>
@@ -3717,14 +3744,14 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="26"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="1">
         <v>5.856338E-3</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
@@ -3737,14 +3764,14 @@
       <c r="K18" s="1">
         <v>1.8603863970834401E-2</v>
       </c>
-      <c r="M18" s="24"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="1" t="s">
         <v>123</v>
       </c>
       <c r="O18" s="1">
         <v>1.8603863970834401E-2</v>
       </c>
-      <c r="Q18" s="24"/>
+      <c r="Q18" s="26"/>
       <c r="R18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3753,14 +3780,14 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="26"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="1">
         <v>5.7501499999999999E-3</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
@@ -3773,14 +3800,14 @@
       <c r="K19" s="1">
         <v>1.6565634807779901E-2</v>
       </c>
-      <c r="M19" s="24"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="O19" s="1">
         <v>1.6565634807779901E-2</v>
       </c>
-      <c r="Q19" s="24"/>
+      <c r="Q19" s="26"/>
       <c r="R19" s="1" t="s">
         <v>169</v>
       </c>
@@ -3789,14 +3816,14 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="26"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1">
         <v>5.6187412999999997E-3</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="1" t="s">
         <v>90</v>
       </c>
@@ -3809,14 +3836,14 @@
       <c r="K20" s="1">
         <v>1.5240059612740499E-2</v>
       </c>
-      <c r="M20" s="24"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="1" t="s">
         <v>103</v>
       </c>
       <c r="O20" s="1">
         <v>1.5240059612740499E-2</v>
       </c>
-      <c r="Q20" s="24"/>
+      <c r="Q20" s="26"/>
       <c r="R20" s="1" t="s">
         <v>44</v>
       </c>
@@ -3843,7 +3870,7 @@
       <c r="K21" s="1">
         <v>1.45933149076039E-2</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="27">
         <v>0.72777140027012199</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -3852,7 +3879,7 @@
       <c r="O21" s="1">
         <v>1.45933149076039E-2</v>
       </c>
-      <c r="Q21" s="24"/>
+      <c r="Q21" s="26"/>
       <c r="R21" s="1" t="s">
         <v>170</v>
       </c>
@@ -3879,7 +3906,7 @@
       <c r="K22" s="1">
         <v>1.2850105397304299E-2</v>
       </c>
-      <c r="M22" s="25"/>
+      <c r="M22" s="27"/>
       <c r="N22" s="1" t="s">
         <v>43</v>
       </c>
@@ -3912,7 +3939,7 @@
       <c r="K23" s="1">
         <v>1.14794267665998E-2</v>
       </c>
-      <c r="M23" s="25"/>
+      <c r="M23" s="27"/>
       <c r="N23" s="1" t="s">
         <v>88</v>
       </c>
@@ -3945,7 +3972,7 @@
       <c r="K24" s="1">
         <v>1.0891291274876201E-2</v>
       </c>
-      <c r="M24" s="25"/>
+      <c r="M24" s="27"/>
       <c r="N24" s="1" t="s">
         <v>11</v>
       </c>
@@ -3978,7 +4005,7 @@
       <c r="K25" s="1">
         <v>1.02821238073545E-2</v>
       </c>
-      <c r="M25" s="25"/>
+      <c r="M25" s="27"/>
       <c r="N25" s="1" t="s">
         <v>99</v>
       </c>
@@ -8292,8 +8319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C19AEF-B212-42A2-B6A6-9D7BF18D40F8}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8313,8 +8340,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" ht="45.6">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="12" t="s">
         <v>145</v>
       </c>
@@ -8345,10 +8372,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="15" t="s">
         <v>136</v>
       </c>
@@ -8378,8 +8405,8 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="22.8">
-      <c r="A3" s="23"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="15" t="s">
         <v>148</v>
       </c>
@@ -8394,8 +8421,8 @@
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="68.400000000000006">
-      <c r="A4" s="23"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="16" t="s">
         <v>137</v>
       </c>
@@ -8410,8 +8437,8 @@
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="45.6">
-      <c r="A5" s="23"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="16" t="s">
         <v>159</v>
       </c>
@@ -8440,8 +8467,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="45.6">
-      <c r="A6" s="23"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16" t="s">
         <v>160</v>
       </c>
@@ -8470,8 +8497,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="91.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16" t="s">
         <v>497</v>
       </c>
@@ -8500,8 +8527,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="45.6">
-      <c r="A8" s="23"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="16" t="s">
         <v>469</v>
       </c>
@@ -8530,8 +8557,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="114">
-      <c r="A9" s="23"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="16" t="s">
         <v>498</v>
       </c>
@@ -8560,8 +8587,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="68.400000000000006">
-      <c r="A10" s="23"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="16" t="s">
         <v>523</v>
       </c>
@@ -8589,35 +8616,69 @@
         <v>0.74066974933891205</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+    <row r="11" spans="1:13" ht="91.2">
+      <c r="C11" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>151</v>
+      </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="27" t="s">
+      <c r="L11" s="24" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27.6">
+      <c r="A12" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D12" s="17">
+        <v>7000</v>
+      </c>
+      <c r="E12" s="17">
+        <v>6</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.8</v>
+      </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="17">
+        <v>3</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1</v>
+      </c>
       <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="L12" s="20">
+        <v>0.73817018979702997</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -8629,8 +8690,8 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -8642,8 +8703,8 @@
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -8655,8 +8716,8 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -8668,48 +8729,48 @@
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/lendingrisk/features.xlsx
+++ b/lendingrisk/features.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6151ECA9-8C74-4F06-9FDB-C7EF789353BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6823DA-2AC0-4D09-8A78-FC7BF6A03AE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/lendingrisk/features.xlsx
+++ b/lendingrisk/features.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6823DA-2AC0-4D09-8A78-FC7BF6A03AE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D51E0F-A9D6-449C-B479-96249753AF6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
@@ -2268,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8319,7 +8319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C19AEF-B212-42A2-B6A6-9D7BF18D40F8}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
